--- a/bika/lims/setupdata/demo/demo.xlsx
+++ b/bika/lims/setupdata/demo/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="920" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="44" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="920" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1577">
   <si>
     <t>Instructions</t>
   </si>
@@ -4175,19 +4175,22 @@
     <t>Auto log off period (minutes)</t>
   </si>
   <si>
+    <t>ShowPartitions</t>
+  </si>
+  <si>
+    <t>Show Sample Partitions</t>
+  </si>
+  <si>
     <t>ShowPricing</t>
   </si>
   <si>
-    <t>Show pricing information</t>
+    <t>Show pricing</t>
   </si>
   <si>
     <t>Currency</t>
   </si>
   <si>
     <t>ZAR</t>
-  </si>
-  <si>
-    <t>Show pricing</t>
   </si>
   <si>
     <t>MemberDiscount</t>
@@ -5777,7 +5780,7 @@
   </sheetPr>
   <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23253,9 +23256,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23332,62 +23335,62 @@
         <v>1288</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C7" s="132" t="s">
         <v>1289</v>
+      </c>
+      <c r="C7" s="133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="6" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="B8" s="112" t="s">
         <v>1290</v>
       </c>
-      <c r="C8" s="133" t="n">
-        <v>0</v>
+      <c r="C8" s="132" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
       <c r="A9" s="6" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C9" s="132" t="n">
-        <v>15</v>
+        <v>1289</v>
+      </c>
+      <c r="C9" s="133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
       <c r="A10" s="6" t="s">
-        <v>1013</v>
+        <v>1292</v>
       </c>
       <c r="B10" s="112" t="s">
         <v>1293</v>
       </c>
       <c r="C10" s="132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
       <c r="A11" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="112" t="s">
         <v>1294</v>
       </c>
-      <c r="B11" s="112" t="s">
-        <v>1295</v>
-      </c>
       <c r="C11" s="132" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
       <c r="A12" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B12" s="112" t="s">
         <v>1296</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>1297</v>
       </c>
       <c r="C12" s="132" t="n">
         <v>5</v>
@@ -23395,120 +23398,120 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
       <c r="A13" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B13" s="112" t="s">
         <v>1298</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>1299</v>
-      </c>
       <c r="C13" s="132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
       <c r="A14" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B14" s="112" t="s">
         <v>1300</v>
       </c>
-      <c r="B14" s="112" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C14" s="132"/>
+      <c r="C14" s="132" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B15" s="112" t="s">
         <v>1302</v>
       </c>
-      <c r="B15" s="112" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C15" s="133" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" s="132"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
       <c r="A16" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>1304</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="C16" s="133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
+      <c r="A17" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="C16" s="133" t="n">
+      <c r="B17" s="112" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C17" s="133" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="17">
-      <c r="A17" s="6" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B17" s="112" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="18">
+      <c r="A18" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="B18" s="112" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C18" s="134" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="18">
-      <c r="A18" s="6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D18" s="136"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
       <c r="A19" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C19" s="135" t="s">
         <v>1311</v>
-      </c>
-      <c r="B19" s="112" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>313</v>
       </c>
       <c r="D19" s="136"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="20">
       <c r="A20" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B20" s="112" t="s">
         <v>1313</v>
-      </c>
-      <c r="B20" s="112" t="s">
-        <v>1314</v>
       </c>
       <c r="C20" s="134" t="s">
         <v>313</v>
       </c>
+      <c r="D20" s="136"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
       <c r="A21" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>1315</v>
       </c>
-      <c r="B21" s="112" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C21" s="135" t="n">
-        <v>30</v>
+      <c r="C21" s="134" t="s">
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B22" s="112" t="s">
         <v>1317</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>1318</v>
-      </c>
       <c r="C22" s="135" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
       <c r="A23" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B23" s="112" t="s">
         <v>1319</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>1320</v>
       </c>
       <c r="C23" s="135" t="n">
         <v>0</v>
@@ -23516,95 +23519,106 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="A24" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B24" s="112" t="s">
         <v>1321</v>
       </c>
-      <c r="B24" s="112" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C24" s="134" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D24" s="137"/>
+      <c r="C24" s="135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="A25" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C25" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="D25" s="137"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
+      <c r="A26" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="B26" s="112" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="26">
-      <c r="A26" s="6" t="s">
+      <c r="C26" s="134" t="s">
         <v>1327</v>
       </c>
-      <c r="B26" s="112" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="27">
+      <c r="A27" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="C26" s="133" t="n">
+      <c r="B27" s="112" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C27" s="133" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
-      <c r="A27" s="6" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C27" s="132" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="A28" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C28" s="132" t="s">
         <v>1332</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C28" s="132" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="A29" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>1334</v>
       </c>
-      <c r="B29" s="112" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C29" s="133" t="n">
-        <v>0</v>
+      <c r="C29" s="132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="A30" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B30" s="112" t="s">
         <v>1336</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="C30" s="133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
+      <c r="A31" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="C30" s="132"/>
+      <c r="B31" s="112" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C31" s="132"/>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C15:C16 C26 C29" type="list">
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C7 C9 C16:C17 C27 C30" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
       <formula1>0</formula1>
       <formula2>23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="whole">
       <formula1>0</formula1>
       <formula2>59</formula2>
     </dataValidation>
@@ -23616,75 +23630,75 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid entry from the selection list" errorTitle="Invalid entry" operator="equal" prompt="Select a valid currency from the list. Currency codes are maintained on the &quot;Constants&quot; sheet" promptTitle="Currency code" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
+    <dataValidation allowBlank="false" error="Select a valid entry from the selection list" errorTitle="Invalid entry" operator="equal" prompt="Select a valid currency from the list. Currency codes are maintained on the &quot;Constants&quot; sheet" promptTitle="Currency code" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8" type="list">
       <formula1>Constants!$B$22:$B$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="The discount percentage entered here, is applied to the prices for clients flagged as 'members', normally co-operative members or associates deserving of this discount" promptTitle="Member discount %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9" type="decimal">
+    <dataValidation allowBlank="false" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="The discount percentage entered here, is applied to the prices for clients flagged as 'members', normally co-operative members or associates deserving of this discount" promptTitle="Member discount %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10" type="decimal">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="Enter percentage value eg. 14.0.  This percentage is applied system-wide but can be overwrittem on individual items" promptTitle="Value added tax %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10" type="decimal">
+    <dataValidation allowBlank="true" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="Enter percentage value eg. 14.0.  This percentage is applied system-wide but can be overwrittem on individual items" promptTitle="Value added tax %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C11" type="decimal">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Using too few data points does not make statistical sense.  Set an acceptable minimum number of results before QC statistics will be calculated and plotted" promptTitle="Minimum number of results for QC stats calculations" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C11" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Using too few data points does not make statistical sense.  Set an acceptable minimum number of results before QC statistics will be calculated and plotted" promptTitle="Minimum number of results for QC stats calculations" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C12" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Set the maximum number of analysis requests per results email. Too many columns per email are difficult to read for some clients who prefer fewer results per email" promptTitle="Maximum columns per results email" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C12" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Set the maximum number of analysis requests per results email. Too many columns per email are difficult to read for some clients who prefer fewer results per email" promptTitle="Maximum columns per results email" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Too many AR columns per fax will see the font size minimised and could render faxes illegible. 4 ARs maximum per page is recommended" promptTitle="Maximum columns per results fax" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Too many AR columns per fax will see the font size minimised and could render faxes illegible. 4 ARs maximum per page is recommended" promptTitle="Maximum columns per results fax" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="The email to SMS gateway address. Either a complete email address, or just the domain, e.g. '@2way.co.za', the contact's mobile phone number will be prepended to" promptTitle="SMS Gateway Email Address" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="The email to SMS gateway address. Either a complete email address, or just the domain, e.g. '@2way.co.za', the contact's mobile phone number will be prepended to" promptTitle="SMS Gateway Email Address" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C15" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
       <formula1>'Analysis Services'!$A$4:$A$167</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
+    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19" type="list">
       <formula1>Constants!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
       <formula1>'analysis services'</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C20:C21" type="list">
       <formula1>Constants!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D20" type="list">
       <formula1>Constants!$B$2:$B$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
       <formula1>Constants!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D24" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D25" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C26" type="list">
       <formula1>Constants!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C29" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C30" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C31" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23733,28 +23747,28 @@
         <v>123</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G1" s="140" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="J1" s="72" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="K1" s="72" t="s">
         <v>1024</v>
@@ -23763,22 +23777,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
       <c r="A2" s="78" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F2" s="112" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G2" s="112" t="n">
         <v>0</v>
@@ -23790,7 +23804,7 @@
         <v>1087</v>
       </c>
       <c r="J2" s="112" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="K2" s="112" t="s">
         <v>1039</v>
@@ -23798,34 +23812,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
       <c r="A3" s="78" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D3" s="112" t="s">
         <v>313</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F3" s="112" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G3" s="112" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="112" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="I3" s="112" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="K3" s="112" t="s">
         <v>1047</v>
@@ -23833,35 +23847,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="78" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D4" s="112" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F4" s="112" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="112" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="112" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="112" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
@@ -23873,7 +23887,7 @@
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="112" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
@@ -23881,16 +23895,16 @@
         <v>190</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="112" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="78" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>214</v>
@@ -23946,39 +23960,39 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="58.45" outlineLevel="0" r="21" s="144">
       <c r="A21" s="64" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E21" s="143" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="145" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>1212</v>
@@ -23987,10 +24001,10 @@
         <v>1219</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F22" s="112" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G22" s="112" t="s">
         <v>919</v>
@@ -24004,19 +24018,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="112" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C23" s="112" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D23" s="112" t="s">
         <v>1260</v>
       </c>
       <c r="E23" s="138" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F23" s="112" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G23" s="112" t="s">
         <v>925</v>
@@ -24025,21 +24039,21 @@
         <v>925</v>
       </c>
       <c r="I23" s="112" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="B24" s="112" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D24" s="112" t="s">
         <v>1262</v>
       </c>
       <c r="F24" s="112" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G24" s="112" t="s">
         <v>922</v>
@@ -24048,926 +24062,926 @@
         <v>922</v>
       </c>
       <c r="I24" s="112" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="B25" s="112" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C25" s="112" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="112" t="s">
         <v>1279</v>
       </c>
       <c r="H25" s="112" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="B26" s="112" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C26" s="112" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="B27" s="112" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="B28" s="112" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C28" s="112" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="B29" s="112" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C29" s="112" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="B30" s="112" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="B31" s="112" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C31" s="112" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="32">
       <c r="B32" s="112" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="33">
       <c r="B33" s="112" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C33" s="112" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="34">
       <c r="B34" s="112" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="35">
       <c r="B35" s="112" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="36">
       <c r="B36" s="112" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="37">
       <c r="B37" s="112" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="38">
       <c r="B38" s="112" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="39">
       <c r="B39" s="112" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="40">
       <c r="B40" s="112" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="41">
       <c r="B41" s="112" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="42">
       <c r="B42" s="112" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="43">
       <c r="B43" s="112" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="44">
       <c r="B44" s="112" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="45">
       <c r="B45" s="112" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="46">
       <c r="B46" s="112" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="47">
       <c r="B47" s="112" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="48">
       <c r="B48" s="112" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="49">
       <c r="B49" s="112" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="50">
       <c r="B50" s="112" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="51">
       <c r="B51" s="112" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="52">
       <c r="B52" s="112" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="53">
       <c r="B53" s="112" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="54">
       <c r="B54" s="112" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="55">
       <c r="B55" s="112" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="56">
       <c r="B56" s="112" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="57">
       <c r="B57" s="112" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="58">
       <c r="B58" s="112" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="59">
       <c r="B59" s="112" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="60">
       <c r="B60" s="112" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="61">
       <c r="B61" s="112" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="62">
       <c r="B62" s="112" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="63">
       <c r="B63" s="112" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="64">
       <c r="B64" s="112" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="65">
       <c r="B65" s="112" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="66">
       <c r="B66" s="112" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="67">
       <c r="B67" s="112" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="68">
       <c r="B68" s="112" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="69">
       <c r="B69" s="112" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="70">
       <c r="B70" s="112" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="71">
       <c r="B71" s="112" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="72">
       <c r="B72" s="112" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="73">
       <c r="B73" s="112" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="74">
       <c r="B74" s="112" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="75">
       <c r="B75" s="112" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="76">
       <c r="B76" s="112" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="77">
       <c r="B77" s="112" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="78">
       <c r="B78" s="112" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="79">
       <c r="B79" s="112" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="80">
       <c r="B80" s="112" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="81">
       <c r="B81" s="112" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="82">
       <c r="B82" s="112" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="83">
       <c r="B83" s="112" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="84">
       <c r="B84" s="112" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="85">
       <c r="B85" s="112" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="86">
       <c r="B86" s="112" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="87">
       <c r="B87" s="112" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="88">
       <c r="B88" s="112" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="89">
       <c r="B89" s="112" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="90">
       <c r="B90" s="112" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="91">
       <c r="B91" s="112" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="92">
       <c r="B92" s="112" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="93">
       <c r="B93" s="112" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="94">
       <c r="B94" s="112" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="95">
       <c r="B95" s="112" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="96">
       <c r="B96" s="112" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="97">
       <c r="B97" s="112" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="98">
       <c r="B98" s="112" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="99">
       <c r="B99" s="112" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="100">
       <c r="B100" s="112" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="101">
       <c r="B101" s="112" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
       <c r="B102" s="112" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="103">
       <c r="B103" s="112" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="104">
       <c r="B104" s="112" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="105">
       <c r="B105" s="112" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="106">
       <c r="B106" s="112" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="107">
       <c r="B107" s="112" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="108">
       <c r="B108" s="112" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="109">
       <c r="B109" s="112" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="110">
       <c r="B110" s="112" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="111">
       <c r="B111" s="112" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="112">
       <c r="B112" s="112" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="113">
       <c r="B113" s="112" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="114">
       <c r="B114" s="112" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="115">
       <c r="B115" s="112" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="116">
       <c r="B116" s="112" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="117">
       <c r="B117" s="112" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="118">
       <c r="B118" s="112" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="119">
       <c r="B119" s="112" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="120">
       <c r="B120" s="112" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="121">
       <c r="B121" s="112" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="122">
       <c r="B122" s="112" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="123">
       <c r="B123" s="112" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="124">
       <c r="B124" s="112" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="125">
       <c r="B125" s="112" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="126">
       <c r="B126" s="112" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="127">
       <c r="B127" s="112" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="128">
       <c r="B128" s="112" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="129">
       <c r="B129" s="112" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="130">
       <c r="B130" s="112" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="131">
       <c r="B131" s="112" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="132">
       <c r="B132" s="112" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="133">
       <c r="B133" s="112" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="134">
       <c r="B134" s="112" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="135">
       <c r="B135" s="112" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="136">
       <c r="B136" s="112" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="137">
       <c r="B137" s="112" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="138">
       <c r="B138" s="112" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="139">
       <c r="B139" s="112" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="140">
       <c r="B140" s="112" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="141">
       <c r="B141" s="112" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="142">
       <c r="B142" s="112" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="143">
       <c r="B143" s="112" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="144">
       <c r="B144" s="112" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="145">
       <c r="B145" s="112" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="146">
       <c r="B146" s="112" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="147">
       <c r="B147" s="112" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="148">
       <c r="B148" s="112" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="149">
       <c r="B149" s="112" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="150">
       <c r="B150" s="112" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="151">
       <c r="B151" s="112" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="152">
       <c r="B152" s="112" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="153">
       <c r="B153" s="112" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="154">
       <c r="B154" s="112" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="155">
       <c r="B155" s="112" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="156">
       <c r="B156" s="112" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="157">
       <c r="B157" s="112" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="158">
       <c r="B158" s="112" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="159">
       <c r="B159" s="112" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="160">
       <c r="B160" s="112" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="161">
       <c r="B161" s="112" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="162">
       <c r="B162" s="112" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="163">
       <c r="B163" s="112" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="164">
       <c r="B164" s="112" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="165">
       <c r="B165" s="112" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="166">
       <c r="B166" s="112" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="167">
       <c r="B167" s="112" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="168">
       <c r="B168" s="112" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="169">
       <c r="B169" s="112" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="170">
       <c r="B170" s="112" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="171">
       <c r="B171" s="112" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="172">
       <c r="B172" s="112" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="173">
       <c r="B173" s="112" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="174">
       <c r="B174" s="112" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="175">
       <c r="B175" s="112" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="176">
       <c r="B176" s="112" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="177">
       <c r="B177" s="112" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="178">
       <c r="B178" s="112" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="179">
       <c r="B179" s="112" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="180">
       <c r="B180" s="112" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="181">
       <c r="B181" s="112" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="182">
       <c r="B182" s="112" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="183">
       <c r="B183" s="112" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="184">
       <c r="B184" s="112" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="185">
       <c r="B185" s="112" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="186">
       <c r="B186" s="112" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="187">
       <c r="B187" s="112" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="188">
       <c r="B188" s="112" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="189">
       <c r="B189" s="112" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="190">
       <c r="B190" s="112" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="191">
       <c r="B191" s="112" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="192">
       <c r="B192" s="112" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="193">
       <c r="B193" s="112" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="194">
       <c r="B194" s="112" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="195">
       <c r="B195" s="112" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="196">
       <c r="B196" s="112" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="197">
       <c r="B197" s="112" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="198">
       <c r="B198" s="112" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="199">
       <c r="B199" s="112" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="200">
       <c r="B200" s="112" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
   </sheetData>

--- a/bika/lims/setupdata/demo/demo.xlsx
+++ b/bika/lims/setupdata/demo/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="44" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="920" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="28" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="918" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1579">
   <si>
     <t>Instructions</t>
   </si>
@@ -3371,430 +3371,436 @@
     <t>Accredited</t>
   </si>
   <si>
-    <t>Uncertainties</t>
-  </si>
-  <si>
-    <t>Result Value</t>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Container_title</t>
+  </si>
+  <si>
+    <t>Range Max</t>
+  </si>
+  <si>
+    <t>Analysis Services - The 'tests' Offered By The Lab</t>
+  </si>
+  <si>
+    <t>Maximum Turnaround Time</t>
+  </si>
+  <si>
+    <t>Point of capture</t>
+  </si>
+  <si>
+    <t>Analysis category</t>
+  </si>
+  <si>
+    <t>Lab department</t>
+  </si>
+  <si>
+    <t>Can be reported as dry matter?</t>
+  </si>
+  <si>
+    <t>Results file attachment permitted</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Bulk price</t>
+  </si>
+  <si>
+    <t>Vat</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Duplicate variation %</t>
+  </si>
+  <si>
+    <t>Default Container</t>
+  </si>
+  <si>
+    <t>Default Preservation</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature at time of sample capture</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>Deg. C</t>
+  </si>
+  <si>
+    <t>pH (field)</t>
+  </si>
+  <si>
+    <t>pH measured at sample capture</t>
+  </si>
+  <si>
+    <t>pHField</t>
+  </si>
+  <si>
+    <t>Aflatoxins Total</t>
+  </si>
+  <si>
+    <t>HPLC, Immuno-fluorescence, Immuno-chemical techniques</t>
+  </si>
+  <si>
+    <t>Aflatox</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>The sample is heated in a muffle furnace to remove organic material. The remaining residue of mineral ash is determined by differential weighing before and after heating</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Chlorides</t>
+  </si>
+  <si>
+    <t>Clide</t>
+  </si>
+  <si>
+    <t>Chlorine residual</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Conductivity @ 25 deg C</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>mS/m</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Ether Extract</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Fat Crude</t>
+  </si>
+  <si>
+    <t>FatCrude</t>
+  </si>
+  <si>
+    <t>Fibre - ADF</t>
+  </si>
+  <si>
+    <t>FibADF</t>
+  </si>
+  <si>
+    <t>Fibre - Crude</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Fibre - NDF</t>
+  </si>
+  <si>
+    <t>NDF</t>
+  </si>
+  <si>
+    <t>Fluoride</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Lignin</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Moisture</t>
+  </si>
+  <si>
+    <t>Dry sample and container are captured. The result is determined by the formula: (wet sample - dry sample) / (wet sample - container)</t>
+  </si>
+  <si>
+    <t>Moist</t>
+  </si>
+  <si>
+    <t>Nitrates &amp; Nitrites</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Phos</t>
+  </si>
+  <si>
+    <t>pH (laboratory)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Phosphorus Total</t>
+  </si>
+  <si>
+    <t>PhosTot</t>
+  </si>
+  <si>
+    <t>Protein - ADIP</t>
+  </si>
+  <si>
+    <t>ADIPP</t>
+  </si>
+  <si>
+    <t>Protein - NDIP</t>
+  </si>
+  <si>
+    <t>NDIPP</t>
+  </si>
+  <si>
+    <t>Protein (KOH Solubility)</t>
+  </si>
+  <si>
+    <t>KOH solubility method for testing protein</t>
+  </si>
+  <si>
+    <t>KOHP</t>
+  </si>
+  <si>
+    <t>Protein (Soluble)</t>
+  </si>
+  <si>
+    <t>Principle: The sample is incubated in a buffered artificial saliva solution to solubilise the protein. The difference between the nitrogen in the filter paper residue and that in original sample gives the soluble protein fraction. Reference: ALASA method 4.5</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Protein Crude</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Sugars</t>
+  </si>
+  <si>
+    <t>Total sugars as invert sugar</t>
+  </si>
+  <si>
+    <t>SUG</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>Suspended solids</t>
+  </si>
+  <si>
+    <t>Suspended solid testing methods</t>
+  </si>
+  <si>
+    <t>TDS (calculated)</t>
+  </si>
+  <si>
+    <t>CTDS</t>
+  </si>
+  <si>
+    <t>Tot. Alkalinity (CaCO3)</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>Tot. Hardness (THCaCO3)</t>
+  </si>
+  <si>
+    <t>THCaCO3</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Description for percentage dry matter. Dependant on Moisture</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DE – Digestible Energy</t>
+  </si>
+  <si>
+    <t>DE is used for pig feeds</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>Clostridia</t>
+  </si>
+  <si>
+    <t>ISO incubation method</t>
+  </si>
+  <si>
+    <t>Clos</t>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Ecoli</t>
+  </si>
+  <si>
+    <t>Salmonella</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Ecoli Count</t>
+  </si>
+  <si>
+    <t>Ecolicnt</t>
+  </si>
+  <si>
+    <t>Enterococcus count</t>
+  </si>
+  <si>
+    <t>Enterocnt</t>
+  </si>
+  <si>
+    <t>Total Viable Bacteria count</t>
+  </si>
+  <si>
+    <t>TVBcnt</t>
+  </si>
+  <si>
+    <t>FS02</t>
+  </si>
+  <si>
+    <t>Fiastar FSO2</t>
+  </si>
+  <si>
+    <t>Fiastar TSO2</t>
+  </si>
+  <si>
+    <t>Service_title</t>
+  </si>
+  <si>
+    <t>Interim Fields Used In Analysis Services</t>
+  </si>
+  <si>
+    <t>Service Title</t>
+  </si>
+  <si>
+    <t>ResultText</t>
+  </si>
+  <si>
+    <t>ResultValue</t>
+  </si>
+  <si>
+    <t>Analysis Services results options</t>
+  </si>
+  <si>
+    <t>Result options</t>
+  </si>
+  <si>
+    <t>Result value</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Indeterminable</t>
   </si>
   <si>
     <t>Range Min</t>
-  </si>
-  <si>
-    <t>Range Max</t>
-  </si>
-  <si>
-    <t>Analysis Services - The 'tests' Offered By The Lab</t>
-  </si>
-  <si>
-    <t>Maximum Turnaround Time</t>
-  </si>
-  <si>
-    <t>Point of capture</t>
-  </si>
-  <si>
-    <t>Analysis category</t>
-  </si>
-  <si>
-    <t>Lab department</t>
-  </si>
-  <si>
-    <t>Can be reported as dry matter?</t>
-  </si>
-  <si>
-    <t>Results file attachment permitted</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Bulk price</t>
-  </si>
-  <si>
-    <t>Vat</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>Duplicate variation %</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature at time of sample capture</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>Deg. C</t>
-  </si>
-  <si>
-    <t>pH (field)</t>
-  </si>
-  <si>
-    <t>pH measured at sample capture</t>
-  </si>
-  <si>
-    <t>pHField</t>
-  </si>
-  <si>
-    <t>Aflatoxins Total</t>
-  </si>
-  <si>
-    <t>HPLC, Immuno-fluorescence, Immuno-chemical techniques</t>
-  </si>
-  <si>
-    <t>Aflatox</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>mg/l</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>The sample is heated in a muffle furnace to remove organic material. The remaining residue of mineral ash is determined by differential weighing before and after heating</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Chlorides</t>
-  </si>
-  <si>
-    <t>Clide</t>
-  </si>
-  <si>
-    <t>Chlorine residual</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Conductivity @ 25 deg C</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>mS/m</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Ether Extract</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Fat Crude</t>
-  </si>
-  <si>
-    <t>FatCrude</t>
-  </si>
-  <si>
-    <t>Fibre - ADF</t>
-  </si>
-  <si>
-    <t>FibADF</t>
-  </si>
-  <si>
-    <t>Fibre - Crude</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Fibre - NDF</t>
-  </si>
-  <si>
-    <t>NDF</t>
-  </si>
-  <si>
-    <t>Fluoride</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Lignin</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Moisture</t>
-  </si>
-  <si>
-    <t>Dry sample and container are captured. The result is determined by the formula: (wet sample - dry sample) / (wet sample - container)</t>
-  </si>
-  <si>
-    <t>Moist</t>
-  </si>
-  <si>
-    <t>Nitrates &amp; Nitrites</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>Phos</t>
-  </si>
-  <si>
-    <t>pH (laboratory)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Phosphorus Total</t>
-  </si>
-  <si>
-    <t>PhosTot</t>
-  </si>
-  <si>
-    <t>Protein - ADIP</t>
-  </si>
-  <si>
-    <t>ADIPP</t>
-  </si>
-  <si>
-    <t>Protein - NDIP</t>
-  </si>
-  <si>
-    <t>NDIPP</t>
-  </si>
-  <si>
-    <t>Protein (KOH Solubility)</t>
-  </si>
-  <si>
-    <t>KOH solubility method for testing protein</t>
-  </si>
-  <si>
-    <t>KOHP</t>
-  </si>
-  <si>
-    <t>Protein (Soluble)</t>
-  </si>
-  <si>
-    <t>Principle: The sample is incubated in a buffered artificial saliva solution to solubilise the protein. The difference between the nitrogen in the filter paper residue and that in original sample gives the soluble protein fraction. Reference: ALASA method 4.5</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Protein Crude</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Starch</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>Sugars</t>
-  </si>
-  <si>
-    <t>Total sugars as invert sugar</t>
-  </si>
-  <si>
-    <t>SUG</t>
-  </si>
-  <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>SO4</t>
-  </si>
-  <si>
-    <t>Suspended solids</t>
-  </si>
-  <si>
-    <t>Suspended solid testing methods</t>
-  </si>
-  <si>
-    <t>TDS (calculated)</t>
-  </si>
-  <si>
-    <t>CTDS</t>
-  </si>
-  <si>
-    <t>Tot. Alkalinity (CaCO3)</t>
-  </si>
-  <si>
-    <t>CaCO3</t>
-  </si>
-  <si>
-    <t>Tot. Hardness (THCaCO3)</t>
-  </si>
-  <si>
-    <t>THCaCO3</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>Description for percentage dry matter. Dependant on Moisture</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>DE – Digestible Energy</t>
-  </si>
-  <si>
-    <t>DE is used for pig feeds</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>MJ/kg</t>
-  </si>
-  <si>
-    <t>Clostridia</t>
-  </si>
-  <si>
-    <t>ISO incubation method</t>
-  </si>
-  <si>
-    <t>Clos</t>
-  </si>
-  <si>
-    <t>Enterococcus</t>
-  </si>
-  <si>
-    <t>Entero</t>
-  </si>
-  <si>
-    <t>Ecoli</t>
-  </si>
-  <si>
-    <t>Salmonella</t>
-  </si>
-  <si>
-    <t>Salmon</t>
-  </si>
-  <si>
-    <t>Ecoli Count</t>
-  </si>
-  <si>
-    <t>Ecolicnt</t>
-  </si>
-  <si>
-    <t>Enterococcus count</t>
-  </si>
-  <si>
-    <t>Enterocnt</t>
-  </si>
-  <si>
-    <t>Total Viable Bacteria count</t>
-  </si>
-  <si>
-    <t>TVBcnt</t>
-  </si>
-  <si>
-    <t>FS02</t>
-  </si>
-  <si>
-    <t>Fiastar FSO2</t>
-  </si>
-  <si>
-    <t>Fiastar TSO2</t>
-  </si>
-  <si>
-    <t>Service_title</t>
-  </si>
-  <si>
-    <t>Interim Fields Used In Analysis Services</t>
-  </si>
-  <si>
-    <t>Service Title</t>
-  </si>
-  <si>
-    <t>ResultText</t>
-  </si>
-  <si>
-    <t>ResultValue</t>
-  </si>
-  <si>
-    <t>Analysis Services results options</t>
-  </si>
-  <si>
-    <t>Result options</t>
-  </si>
-  <si>
-    <t>Result value</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Indeterminable</t>
   </si>
   <si>
     <t>Uncertainty Value</t>
@@ -12603,8 +12609,8 @@
   </sheetPr>
   <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="W3" activeCellId="0" pane="topLeft" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -12627,11 +12633,12 @@
     <col collapsed="false" hidden="false" max="19" min="19" style="60" width="16.0627450980392"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="60" width="13.7176470588235"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="60" width="8.42745098039216"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="60" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="60" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="60" width="8.05882352941176"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="60" width="20.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="60" width="9.18039215686274"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="16">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="16">
       <c r="A1" s="16" t="s">
         <v>219</v>
       </c>
@@ -12702,22 +12709,22 @@
         <v>1019</v>
       </c>
       <c r="X1" s="115" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y1" s="115" t="s">
         <v>1020</v>
-      </c>
-      <c r="Y1" s="115" t="s">
-        <v>1021</v>
       </c>
       <c r="AMH1" s="60"/>
       <c r="AMI1" s="60"/>
       <c r="AMJ1" s="60"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C2" s="9"/>
       <c r="K2" s="116" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L2" s="116"/>
       <c r="M2" s="116"/>
@@ -12728,7 +12735,7 @@
       <c r="AMI2" s="51"/>
       <c r="AMJ2" s="51"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="3" s="61">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.8" outlineLevel="0" r="3" s="61">
       <c r="A3" s="61" t="s">
         <v>223</v>
       </c>
@@ -12739,19 +12746,19 @@
         <v>983</v>
       </c>
       <c r="D3" s="61" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>1024</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="61" t="s">
         <v>1025</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="G3" s="61" t="s">
         <v>1026</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="H3" s="61" t="s">
         <v>1027</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>1028</v>
       </c>
       <c r="I3" s="61" t="s">
         <v>987</v>
@@ -12760,22 +12767,22 @@
         <v>1007</v>
       </c>
       <c r="K3" s="61" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L3" s="61" t="s">
         <v>1029</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="M3" s="61" t="s">
         <v>1030</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>1031</v>
       </c>
       <c r="N3" s="61" t="s">
         <v>1011</v>
       </c>
       <c r="O3" s="61" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P3" s="61" t="s">
         <v>1032</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>1033</v>
       </c>
       <c r="Q3" s="61" t="s">
         <v>1014</v>
@@ -12784,13 +12791,22 @@
         <v>877</v>
       </c>
       <c r="S3" s="61" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T3" s="61" t="s">
         <v>1034</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>1035</v>
       </c>
       <c r="U3" s="61" t="s">
         <v>1017</v>
+      </c>
+      <c r="V3" s="61" t="s">
+        <v>1018</v>
+      </c>
+      <c r="W3" s="61" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X3" s="61" t="s">
+        <v>1036</v>
       </c>
       <c r="AMH3" s="4"/>
       <c r="AMI3" s="4"/>
@@ -12798,16 +12814,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="60" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D4" s="118" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E4" s="118" t="s">
         <v>949</v>
@@ -12822,7 +12838,7 @@
         <v>313</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="J4" s="60" t="n">
         <v>2</v>
@@ -12854,19 +12870,24 @@
       <c r="U4" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V4" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="60" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C5" s="118" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E5" s="118" t="s">
         <v>949</v>
@@ -12911,19 +12932,24 @@
       <c r="U5" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V5" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="60" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C6" s="118" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D6" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E6" s="118" t="s">
         <v>947</v>
@@ -12938,7 +12964,7 @@
         <v>313</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J6" s="60" t="n">
         <v>2</v>
@@ -12970,19 +12996,24 @@
       <c r="U6" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V6" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="60" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B7" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C7" s="118" t="s">
         <v>1050</v>
       </c>
-      <c r="C7" s="118" t="s">
-        <v>1049</v>
-      </c>
       <c r="D7" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E7" s="118" t="s">
         <v>943</v>
@@ -12998,7 +13029,7 @@
         <v>313</v>
       </c>
       <c r="I7" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J7" s="60" t="n">
         <v>2</v>
@@ -13032,16 +13063,21 @@
       <c r="U7" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V7" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="60" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C8" s="118" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E8" s="118" t="s">
         <v>940</v>
@@ -13056,7 +13092,7 @@
         <v>313</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J8" s="60" t="n">
         <v>2</v>
@@ -13090,16 +13126,21 @@
       <c r="U8" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V8" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="9">
       <c r="A9" s="60" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C9" s="118" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E9" s="118" t="s">
         <v>949</v>
@@ -13114,7 +13155,7 @@
         <v>313</v>
       </c>
       <c r="I9" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J9" s="60" t="n">
         <v>2</v>
@@ -13146,16 +13187,21 @@
       <c r="U9" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V9" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="60" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E10" s="118" t="s">
         <v>949</v>
@@ -13170,7 +13216,7 @@
         <v>313</v>
       </c>
       <c r="I10" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J10" s="60" t="n">
         <v>2</v>
@@ -13204,16 +13250,21 @@
       <c r="U10" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V10" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
       <c r="A11" s="60" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="118" t="s">
         <v>949</v>
@@ -13228,7 +13279,7 @@
         <v>313</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J11" s="60" t="n">
         <v>2</v>
@@ -13260,16 +13311,21 @@
       <c r="U11" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V11" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
       <c r="A12" s="60" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D12" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E12" s="118" t="s">
         <v>943</v>
@@ -13284,7 +13340,7 @@
         <v>313</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="J12" s="60" t="n">
         <v>2</v>
@@ -13316,16 +13372,21 @@
       <c r="U12" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V12" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
       <c r="A13" s="60" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D13" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E13" s="118" t="s">
         <v>940</v>
@@ -13340,7 +13401,7 @@
         <v>313</v>
       </c>
       <c r="I13" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J13" s="60" t="n">
         <v>2</v>
@@ -13372,16 +13433,21 @@
       <c r="U13" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V13" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
       <c r="A14" s="60" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D14" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="118" t="s">
         <v>938</v>
@@ -13396,7 +13462,7 @@
         <v>313</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J14" s="60" t="n">
         <v>2</v>
@@ -13428,16 +13494,21 @@
       <c r="U14" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V14" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="15">
       <c r="A15" s="60" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D15" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E15" s="118" t="s">
         <v>938</v>
@@ -13452,7 +13523,7 @@
         <v>313</v>
       </c>
       <c r="I15" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J15" s="60" t="n">
         <v>2</v>
@@ -13486,16 +13557,21 @@
       <c r="U15" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V15" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="16">
       <c r="A16" s="60" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C16" s="118" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D16" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E16" s="118" t="s">
         <v>938</v>
@@ -13510,7 +13586,7 @@
         <v>313</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J16" s="60" t="n">
         <v>2</v>
@@ -13544,16 +13620,21 @@
       <c r="U16" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V16" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="17">
       <c r="A17" s="60" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D17" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E17" s="118" t="s">
         <v>938</v>
@@ -13568,7 +13649,7 @@
         <v>313</v>
       </c>
       <c r="I17" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J17" s="60" t="n">
         <v>2</v>
@@ -13600,16 +13681,21 @@
       <c r="U17" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V17" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="18">
       <c r="A18" s="60" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D18" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E18" s="118" t="s">
         <v>938</v>
@@ -13624,7 +13710,7 @@
         <v>313</v>
       </c>
       <c r="I18" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J18" s="60" t="n">
         <v>2</v>
@@ -13658,16 +13744,21 @@
       <c r="U18" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V18" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="19">
       <c r="A19" s="60" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E19" s="118" t="s">
         <v>940</v>
@@ -13682,7 +13773,7 @@
         <v>313</v>
       </c>
       <c r="I19" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J19" s="60" t="n">
         <v>2</v>
@@ -13714,16 +13805,21 @@
       <c r="U19" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V19" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="20">
       <c r="A20" s="60" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D20" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E20" s="118" t="s">
         <v>940</v>
@@ -13738,7 +13834,7 @@
         <v>313</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J20" s="60" t="n">
         <v>2</v>
@@ -13770,16 +13866,21 @@
       <c r="U20" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V20" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="21">
       <c r="A21" s="60" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E21" s="118" t="s">
         <v>945</v>
@@ -13794,7 +13895,7 @@
         <v>313</v>
       </c>
       <c r="I21" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J21" s="60" t="n">
         <v>2</v>
@@ -13828,16 +13929,21 @@
       <c r="U21" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V21" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="22">
       <c r="A22" s="60" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D22" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="118" t="s">
         <v>940</v>
@@ -13852,7 +13958,7 @@
         <v>313</v>
       </c>
       <c r="I22" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J22" s="60" t="n">
         <v>2</v>
@@ -13884,16 +13990,21 @@
       <c r="U22" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V22" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="23">
       <c r="A23" s="60" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D23" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E23" s="118" t="s">
         <v>940</v>
@@ -13908,7 +14019,7 @@
         <v>313</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J23" s="60" t="n">
         <v>2</v>
@@ -13940,19 +14051,24 @@
       <c r="U23" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V23" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="24">
       <c r="A24" s="60" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E24" s="118" t="s">
         <v>943</v>
@@ -13967,7 +14083,7 @@
         <v>313</v>
       </c>
       <c r="I24" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J24" s="60" t="n">
         <v>2</v>
@@ -14001,16 +14117,21 @@
       <c r="U24" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V24" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="25">
       <c r="A25" s="60" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D25" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E25" s="118" t="s">
         <v>940</v>
@@ -14025,7 +14146,7 @@
         <v>313</v>
       </c>
       <c r="I25" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J25" s="60" t="n">
         <v>2</v>
@@ -14057,16 +14178,21 @@
       <c r="U25" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V25" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="26">
       <c r="A26" s="60" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D26" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E26" s="118" t="s">
         <v>940</v>
@@ -14081,7 +14207,7 @@
         <v>313</v>
       </c>
       <c r="I26" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J26" s="60" t="n">
         <v>2</v>
@@ -14113,16 +14239,21 @@
       <c r="U26" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V26" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="27">
       <c r="A27" s="60" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C27" s="118" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D27" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E27" s="118" t="s">
         <v>943</v>
@@ -14167,16 +14298,21 @@
       <c r="U27" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V27" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="28">
       <c r="A28" s="60" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C28" s="118" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D28" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E28" s="118" t="s">
         <v>943</v>
@@ -14191,7 +14327,7 @@
         <v>313</v>
       </c>
       <c r="I28" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J28" s="60" t="n">
         <v>2</v>
@@ -14223,16 +14359,21 @@
       <c r="U28" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V28" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="29">
       <c r="A29" s="60" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D29" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E29" s="118" t="s">
         <v>945</v>
@@ -14247,7 +14388,7 @@
         <v>313</v>
       </c>
       <c r="I29" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J29" s="60" t="n">
         <v>2</v>
@@ -14279,16 +14420,21 @@
       <c r="U29" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V29" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="30">
       <c r="A30" s="60" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C30" s="118" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D30" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E30" s="118" t="s">
         <v>945</v>
@@ -14303,7 +14449,7 @@
         <v>313</v>
       </c>
       <c r="I30" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J30" s="60" t="n">
         <v>2</v>
@@ -14337,19 +14483,24 @@
       <c r="U30" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V30" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="31">
       <c r="A31" s="60" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C31" s="118" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D31" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E31" s="118" t="s">
         <v>945</v>
@@ -14364,7 +14515,7 @@
         <v>313</v>
       </c>
       <c r="I31" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J31" s="60" t="n">
         <v>2</v>
@@ -14396,19 +14547,24 @@
       <c r="U31" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V31" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="32">
       <c r="A32" s="60" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D32" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E32" s="118" t="s">
         <v>945</v>
@@ -14423,7 +14579,7 @@
         <v>313</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J32" s="60" t="n">
         <v>2</v>
@@ -14455,16 +14611,21 @@
       <c r="U32" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V32" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="33">
       <c r="A33" s="60" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C33" s="118" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D33" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E33" s="118" t="s">
         <v>945</v>
@@ -14479,7 +14640,7 @@
         <v>313</v>
       </c>
       <c r="I33" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J33" s="60" t="n">
         <v>2</v>
@@ -14511,16 +14672,21 @@
       <c r="U33" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V33" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="34">
       <c r="A34" s="60" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C34" s="118" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D34" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E34" s="118" t="s">
         <v>940</v>
@@ -14535,7 +14701,7 @@
         <v>313</v>
       </c>
       <c r="I34" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J34" s="60" t="n">
         <v>2</v>
@@ -14567,16 +14733,21 @@
       <c r="U34" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V34" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="35">
       <c r="A35" s="60" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C35" s="118" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D35" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E35" s="118" t="s">
         <v>938</v>
@@ -14591,7 +14762,7 @@
         <v>313</v>
       </c>
       <c r="I35" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J35" s="60" t="n">
         <v>2</v>
@@ -14623,19 +14794,24 @@
       <c r="U35" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V35" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="36">
       <c r="A36" s="60" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C36" s="118" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D36" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E36" s="118" t="s">
         <v>938</v>
@@ -14650,7 +14826,7 @@
         <v>313</v>
       </c>
       <c r="I36" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J36" s="60" t="n">
         <v>2</v>
@@ -14682,16 +14858,21 @@
       <c r="U36" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V36" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="37">
       <c r="A37" s="60" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E37" s="118" t="s">
         <v>943</v>
@@ -14706,7 +14887,7 @@
         <v>313</v>
       </c>
       <c r="I37" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J37" s="60" t="n">
         <v>2</v>
@@ -14738,19 +14919,24 @@
       <c r="U37" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V37" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="38">
       <c r="A38" s="60" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C38" s="118" t="s">
         <v>288</v>
       </c>
       <c r="D38" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E38" s="118" t="s">
         <v>949</v>
@@ -14765,7 +14951,7 @@
         <v>313</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J38" s="60" t="n">
         <v>2</v>
@@ -14797,16 +14983,21 @@
       <c r="U38" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V38" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="39">
       <c r="A39" s="60" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C39" s="118" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E39" s="118" t="s">
         <v>949</v>
@@ -14821,7 +15012,7 @@
         <v>313</v>
       </c>
       <c r="I39" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J39" s="60" t="n">
         <v>2</v>
@@ -14853,16 +15044,21 @@
       <c r="U39" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V39" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="40">
       <c r="A40" s="60" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C40" s="118" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D40" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E40" s="118" t="s">
         <v>949</v>
@@ -14877,7 +15073,7 @@
         <v>313</v>
       </c>
       <c r="I40" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J40" s="60" t="n">
         <v>2</v>
@@ -14909,16 +15105,21 @@
       <c r="U40" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V40" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="41">
       <c r="A41" s="60" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C41" s="118" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D41" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E41" s="118" t="s">
         <v>949</v>
@@ -14933,7 +15134,7 @@
         <v>313</v>
       </c>
       <c r="I41" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J41" s="60" t="n">
         <v>2</v>
@@ -14965,16 +15166,21 @@
       <c r="U41" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V41" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="42">
       <c r="A42" s="60" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C42" s="118" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D42" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E42" s="118" t="s">
         <v>943</v>
@@ -14989,7 +15195,7 @@
         <v>313</v>
       </c>
       <c r="I42" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J42" s="60" t="n">
         <v>2</v>
@@ -15021,16 +15227,21 @@
       <c r="U42" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V42" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="43">
       <c r="A43" s="60" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C43" s="118" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D43" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E43" s="118" t="s">
         <v>940</v>
@@ -15045,7 +15256,7 @@
         <v>313</v>
       </c>
       <c r="I43" s="119" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="J43" s="60" t="n">
         <v>2</v>
@@ -15077,19 +15288,24 @@
       <c r="U43" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V43" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="44">
       <c r="A44" s="60" t="s">
         <v>967</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C44" s="118" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D44" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E44" s="118" t="s">
         <v>943</v>
@@ -15104,7 +15320,7 @@
         <v>313</v>
       </c>
       <c r="I44" s="119" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="J44" s="60" t="n">
         <v>2</v>
@@ -15138,19 +15354,24 @@
       <c r="U44" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V44" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="121"/>
+      <c r="X44" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="45">
       <c r="A45" s="60" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C45" s="118" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D45" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E45" s="118" t="s">
         <v>938</v>
@@ -15165,7 +15386,7 @@
         <v>313</v>
       </c>
       <c r="I45" s="119" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="J45" s="60" t="n">
         <v>2</v>
@@ -15199,19 +15420,24 @@
       <c r="U45" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V45" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="46">
       <c r="A46" s="60" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C46" s="118" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D46" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E46" s="118" t="s">
         <v>167</v>
@@ -15256,19 +15482,24 @@
       <c r="U46" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V46" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="121"/>
+      <c r="X46" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="47">
       <c r="A47" s="60" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C47" s="118" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D47" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E47" s="118" t="s">
         <v>167</v>
@@ -15313,19 +15544,24 @@
       <c r="U47" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V47" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="48">
       <c r="A48" s="60" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C48" s="118" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D48" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E48" s="118" t="s">
         <v>167</v>
@@ -15370,19 +15606,24 @@
       <c r="U48" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V48" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="121"/>
+      <c r="X48" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="49">
       <c r="A49" s="60" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C49" s="118" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D49" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E49" s="118" t="s">
         <v>167</v>
@@ -15427,19 +15668,24 @@
       <c r="U49" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V49" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="121"/>
+      <c r="X49" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="50">
       <c r="A50" s="60" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C50" s="118" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D50" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E50" s="118" t="s">
         <v>167</v>
@@ -15484,19 +15730,24 @@
       <c r="U50" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V50" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="51">
       <c r="A51" s="60" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C51" s="118" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D51" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E51" s="118" t="s">
         <v>167</v>
@@ -15541,19 +15792,24 @@
       <c r="U51" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V51" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="52">
       <c r="A52" s="60" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C52" s="118" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D52" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E52" s="118" t="s">
         <v>167</v>
@@ -15598,19 +15854,24 @@
       <c r="U52" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V52" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="121"/>
+      <c r="X52" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="53">
       <c r="A53" s="122" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B53" s="122" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C53" s="118" t="s">
         <v>975</v>
       </c>
       <c r="D53" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E53" s="118" t="s">
         <v>943</v>
@@ -15657,19 +15918,24 @@
       <c r="U53" s="74" t="n">
         <v>0</v>
       </c>
+      <c r="V53" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="54">
       <c r="A54" s="122" t="s">
         <v>973</v>
       </c>
       <c r="B54" s="122" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C54" s="118" t="s">
         <v>973</v>
       </c>
       <c r="D54" s="118" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E54" s="118" t="s">
         <v>943</v>
@@ -15716,12 +15982,17 @@
       <c r="U54" s="74" t="n">
         <v>1</v>
       </c>
+      <c r="V54" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="121"/>
+      <c r="X54" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="17">
     <dataValidation allowBlank="true" error="Please enter a whole number greater than or equal to 0" errorTitle="Invalid data" operator="greaterThanOrEqual" prompt="Please enter a whole number greater than or equal to 0" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K4:K54" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -15778,6 +16049,18 @@
       <formula1>'Analysis Service Uncertainties'!$A$4:$A$98</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Does this analysis require a separate sample partition?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V4:V54" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Container from the selection list. Maintain the list of valid options on the 'Containers' sheet." promptTitle="Select a valid Container" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W4:W54" type="list">
+      <formula1>Containers!$A$4:$A$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Preservation from the selection list. Maintain the list of valid options on the 'Preservations' sheet." promptTitle="Select a valid Preservation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X4:X54" type="list">
+      <formula1>Preservations!$A$4:$A$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16214,7 +16497,7 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>977</v>
@@ -16231,13 +16514,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>983</v>
@@ -16285,19 +16568,19 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="16">
       <c r="A1" s="60" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AMJ1" s="60"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C2" s="14"/>
       <c r="AMJ2" s="51"/>
@@ -16307,19 +16590,19 @@
         <v>223</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="AMJ3" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="65" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C4" s="75" t="n">
         <v>0</v>
@@ -16327,10 +16610,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="65" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C5" s="75" t="n">
         <v>1</v>
@@ -16338,10 +16621,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="65" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C6" s="75" t="n">
         <v>2</v>
@@ -16349,10 +16632,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="65" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C7" s="75" t="n">
         <v>0</v>
@@ -16360,10 +16643,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="65" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C8" s="75" t="n">
         <v>1</v>
@@ -16371,10 +16654,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="9">
       <c r="A9" s="65" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C9" s="75" t="n">
         <v>2</v>
@@ -16382,10 +16665,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="65" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C10" s="75" t="n">
         <v>0</v>
@@ -16393,10 +16676,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
       <c r="A11" s="65" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C11" s="75" t="n">
         <v>1</v>
@@ -16404,10 +16687,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
       <c r="A12" s="65" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C12" s="75" t="n">
         <v>2</v>
@@ -16415,10 +16698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
       <c r="A13" s="65" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C13" s="75" t="n">
         <v>0</v>
@@ -16426,10 +16709,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
       <c r="A14" s="65" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C14" s="75" t="n">
         <v>1</v>
@@ -16437,10 +16720,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="15">
       <c r="A15" s="65" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C15" s="75" t="n">
         <v>2</v>
@@ -16493,21 +16776,21 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="16">
       <c r="A1" s="60" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1021</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="14"/>
@@ -16516,27 +16799,27 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="31.3" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="65" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D4" s="21" t="n">
         <v>0.1</v>
@@ -16544,7 +16827,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="65" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B5" s="21" t="n">
         <v>2.01</v>
@@ -16558,7 +16841,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="65" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B6" s="21" t="n">
         <v>4.01</v>
@@ -16572,7 +16855,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="65" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="21" t="n">
         <v>6.01</v>
@@ -16586,21 +16869,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="65" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
       <c r="A9" s="65" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B9" s="21" t="n">
         <v>0</v>
@@ -16614,7 +16897,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
       <c r="A10" s="65" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B10" s="21" t="n">
         <v>2.01</v>
@@ -16628,7 +16911,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
       <c r="A11" s="65" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B11" s="21" t="n">
         <v>4.01</v>
@@ -16642,7 +16925,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="12">
       <c r="A12" s="65" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B12" s="21" t="n">
         <v>6.01</v>
@@ -16656,21 +16939,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
       <c r="A13" s="65" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
       <c r="A14" s="65" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>0</v>
@@ -16684,7 +16967,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="15">
       <c r="A15" s="65" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>2.01</v>
@@ -16698,7 +16981,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="16">
       <c r="A16" s="65" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>4.01</v>
@@ -16712,7 +16995,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="17">
       <c r="A17" s="65" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>6.01</v>
@@ -16726,21 +17009,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="18">
       <c r="A18" s="65" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="19">
       <c r="A19" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>0</v>
@@ -16754,7 +17037,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="20">
       <c r="A20" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>2.01</v>
@@ -16768,7 +17051,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="21">
       <c r="A21" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B21" s="21" t="n">
         <v>4.01</v>
@@ -16782,7 +17065,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="22">
       <c r="A22" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B22" s="21" t="n">
         <v>6.01</v>
@@ -16796,21 +17079,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="23">
       <c r="A23" s="65" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="24">
       <c r="A24" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>0</v>
@@ -16824,7 +17107,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="25">
       <c r="A25" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>2.01</v>
@@ -16838,7 +17121,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="26">
       <c r="A26" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>4.01</v>
@@ -16852,7 +17135,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="27">
       <c r="A27" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>6.01</v>
@@ -16866,21 +17149,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="28">
       <c r="A28" s="65" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="29">
       <c r="A29" s="65" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>0</v>
@@ -16894,7 +17177,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="30">
       <c r="A30" s="65" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>2.01</v>
@@ -16908,7 +17191,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="31">
       <c r="A31" s="65" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>4.01</v>
@@ -16922,7 +17205,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="32">
       <c r="A32" s="65" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>6.01</v>
@@ -16936,21 +17219,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="33">
       <c r="A33" s="65" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="34">
       <c r="A34" s="65" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>0</v>
@@ -16964,7 +17247,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="35">
       <c r="A35" s="65" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>2.01</v>
@@ -16978,7 +17261,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="36">
       <c r="A36" s="65" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>4.01</v>
@@ -16992,7 +17275,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="37">
       <c r="A37" s="65" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>6.01</v>
@@ -17006,21 +17289,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="38">
       <c r="A38" s="65" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="39">
       <c r="A39" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>0</v>
@@ -17034,7 +17317,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="40">
       <c r="A40" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>2.01</v>
@@ -17048,7 +17331,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="41">
       <c r="A41" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>4.01</v>
@@ -17062,7 +17345,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="42">
       <c r="A42" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>6.01</v>
@@ -17076,21 +17359,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="43">
       <c r="A43" s="65" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="44">
       <c r="A44" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>0</v>
@@ -17104,7 +17387,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="45">
       <c r="A45" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>2.01</v>
@@ -17118,7 +17401,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="46">
       <c r="A46" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>4.01</v>
@@ -17132,7 +17415,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="47">
       <c r="A47" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>6.01</v>
@@ -17146,21 +17429,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="48">
       <c r="A48" s="65" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="49">
       <c r="A49" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B49" s="21" t="n">
         <v>0</v>
@@ -17174,7 +17457,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="50">
       <c r="A50" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B50" s="21" t="n">
         <v>2.01</v>
@@ -17188,7 +17471,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="51">
       <c r="A51" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B51" s="21" t="n">
         <v>4.01</v>
@@ -17202,7 +17485,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="52">
       <c r="A52" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B52" s="21" t="n">
         <v>6.01</v>
@@ -17216,21 +17499,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="53">
       <c r="A53" s="65" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="54">
       <c r="A54" s="65" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B54" s="21" t="n">
         <v>0</v>
@@ -17244,7 +17527,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="55">
       <c r="A55" s="65" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B55" s="21" t="n">
         <v>2.01</v>
@@ -17258,7 +17541,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="56">
       <c r="A56" s="65" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B56" s="21" t="n">
         <v>4.01</v>
@@ -17272,7 +17555,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="57">
       <c r="A57" s="65" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B57" s="21" t="n">
         <v>6.01</v>
@@ -17286,21 +17569,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="58">
       <c r="A58" s="65" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="59">
       <c r="A59" s="65" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B59" s="21" t="n">
         <v>0</v>
@@ -17314,7 +17597,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="60">
       <c r="A60" s="65" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B60" s="21" t="n">
         <v>2.01</v>
@@ -17328,7 +17611,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="61">
       <c r="A61" s="65" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B61" s="21" t="n">
         <v>4.01</v>
@@ -17342,7 +17625,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="62">
       <c r="A62" s="65" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B62" s="21" t="n">
         <v>6.01</v>
@@ -17356,21 +17639,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="63">
       <c r="A63" s="65" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="64">
       <c r="A64" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B64" s="21" t="n">
         <v>0</v>
@@ -17384,7 +17667,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="65">
       <c r="A65" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B65" s="21" t="n">
         <v>2.01</v>
@@ -17398,7 +17681,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="66">
       <c r="A66" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B66" s="21" t="n">
         <v>4.01</v>
@@ -17412,7 +17695,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="67">
       <c r="A67" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B67" s="21" t="n">
         <v>6.01</v>
@@ -17426,21 +17709,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="68">
       <c r="A68" s="65" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="69">
       <c r="A69" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B69" s="21" t="n">
         <v>0</v>
@@ -17454,7 +17737,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="70">
       <c r="A70" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B70" s="21" t="n">
         <v>2.01</v>
@@ -17468,7 +17751,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="71">
       <c r="A71" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B71" s="21" t="n">
         <v>4.01</v>
@@ -17482,7 +17765,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="72">
       <c r="A72" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="21" t="n">
         <v>6.01</v>
@@ -17496,21 +17779,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="73">
       <c r="A73" s="65" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="74">
       <c r="A74" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B74" s="21" t="n">
         <v>0</v>
@@ -17524,7 +17807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="75">
       <c r="A75" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B75" s="21" t="n">
         <v>2.01</v>
@@ -17538,7 +17821,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="76">
       <c r="A76" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B76" s="21" t="n">
         <v>4.01</v>
@@ -17552,7 +17835,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="77">
       <c r="A77" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B77" s="21" t="n">
         <v>6.01</v>
@@ -17566,21 +17849,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="78">
       <c r="A78" s="65" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="79">
       <c r="A79" s="65" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B79" s="21" t="n">
         <v>0</v>
@@ -17594,7 +17877,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="80">
       <c r="A80" s="65" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B80" s="21" t="n">
         <v>2.01</v>
@@ -17608,7 +17891,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="81">
       <c r="A81" s="65" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B81" s="21" t="n">
         <v>4.01</v>
@@ -17622,7 +17905,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="82">
       <c r="A82" s="65" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B82" s="21" t="n">
         <v>6.01</v>
@@ -17636,21 +17919,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="83">
       <c r="A83" s="65" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="84">
       <c r="A84" s="65" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B84" s="21" t="n">
         <v>0</v>
@@ -17664,7 +17947,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="85">
       <c r="A85" s="65" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B85" s="21" t="n">
         <v>2.01</v>
@@ -17678,7 +17961,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="86">
       <c r="A86" s="65" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B86" s="21" t="n">
         <v>4.01</v>
@@ -17692,7 +17975,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="87">
       <c r="A87" s="65" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B87" s="21" t="n">
         <v>6.01</v>
@@ -17706,21 +17989,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="88">
       <c r="A88" s="65" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="89">
       <c r="A89" s="65" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B89" s="21" t="n">
         <v>0</v>
@@ -17734,7 +18017,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="90">
       <c r="A90" s="65" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B90" s="21" t="n">
         <v>2.01</v>
@@ -17748,7 +18031,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="91">
       <c r="A91" s="65" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B91" s="21" t="n">
         <v>4.01</v>
@@ -17762,7 +18045,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="92">
       <c r="A92" s="65" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B92" s="21" t="n">
         <v>6.01</v>
@@ -17776,21 +18059,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="93">
       <c r="A93" s="65" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="94">
       <c r="A94" s="65" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B94" s="21" t="n">
         <v>0</v>
@@ -17804,7 +18087,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="95">
       <c r="A95" s="65" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B95" s="21" t="n">
         <v>2.01</v>
@@ -17818,7 +18101,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="96">
       <c r="A96" s="65" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B96" s="21" t="n">
         <v>4.01</v>
@@ -17832,7 +18115,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="97">
       <c r="A97" s="65" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B97" s="21" t="n">
         <v>6.01</v>
@@ -17846,21 +18129,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="98">
       <c r="A98" s="65" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="99">
       <c r="A99" s="65" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B99" s="21" t="n">
         <v>0</v>
@@ -17874,7 +18157,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="100">
       <c r="A100" s="65" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B100" s="21" t="n">
         <v>2.01</v>
@@ -17888,7 +18171,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="101">
       <c r="A101" s="65" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B101" s="21" t="n">
         <v>4.01</v>
@@ -17902,7 +18185,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="102">
       <c r="A102" s="65" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B102" s="21" t="n">
         <v>6.01</v>
@@ -17916,21 +18199,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="103">
       <c r="A103" s="65" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="104">
       <c r="A104" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B104" s="21" t="n">
         <v>0</v>
@@ -17944,7 +18227,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="105">
       <c r="A105" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B105" s="21" t="n">
         <v>2.01</v>
@@ -17958,7 +18241,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="106">
       <c r="A106" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B106" s="21" t="n">
         <v>4.01</v>
@@ -17972,7 +18255,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="107">
       <c r="A107" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B107" s="21" t="n">
         <v>6.01</v>
@@ -17986,21 +18269,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="108">
       <c r="A108" s="65" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="109">
       <c r="A109" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B109" s="21" t="n">
         <v>0</v>
@@ -18014,7 +18297,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="110">
       <c r="A110" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B110" s="21" t="n">
         <v>2.01</v>
@@ -18028,7 +18311,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="111">
       <c r="A111" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B111" s="21" t="n">
         <v>4.01</v>
@@ -18042,7 +18325,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="112">
       <c r="A112" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B112" s="21" t="n">
         <v>6.01</v>
@@ -18056,21 +18339,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="113">
       <c r="A113" s="65" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="114">
       <c r="A114" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B114" s="21" t="n">
         <v>0</v>
@@ -18084,7 +18367,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="115">
       <c r="A115" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B115" s="21" t="n">
         <v>2.01</v>
@@ -18098,7 +18381,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="116">
       <c r="A116" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B116" s="21" t="n">
         <v>4.01</v>
@@ -18112,7 +18395,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="117">
       <c r="A117" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B117" s="21" t="n">
         <v>6.01</v>
@@ -18126,21 +18409,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="118">
       <c r="A118" s="65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="119">
       <c r="A119" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B119" s="21" t="n">
         <v>0</v>
@@ -18154,7 +18437,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="120">
       <c r="A120" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B120" s="21" t="n">
         <v>2.01</v>
@@ -18168,7 +18451,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="121">
       <c r="A121" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B121" s="21" t="n">
         <v>4.01</v>
@@ -18182,7 +18465,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="122">
       <c r="A122" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B122" s="21" t="n">
         <v>6.01</v>
@@ -18196,21 +18479,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="123">
       <c r="A123" s="65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="124">
       <c r="A124" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B124" s="21" t="n">
         <v>0</v>
@@ -18224,7 +18507,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="125">
       <c r="A125" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B125" s="21" t="n">
         <v>2.01</v>
@@ -18238,7 +18521,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="126">
       <c r="A126" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B126" s="21" t="n">
         <v>4.01</v>
@@ -18252,7 +18535,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="127">
       <c r="A127" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B127" s="21" t="n">
         <v>6.01</v>
@@ -18266,21 +18549,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="128">
       <c r="A128" s="65" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="129">
       <c r="A129" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B129" s="21" t="n">
         <v>0</v>
@@ -18294,7 +18577,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="130">
       <c r="A130" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B130" s="21" t="n">
         <v>2.01</v>
@@ -18308,7 +18591,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="131">
       <c r="A131" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B131" s="21" t="n">
         <v>4.01</v>
@@ -18322,7 +18605,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="132">
       <c r="A132" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B132" s="21" t="n">
         <v>6.01</v>
@@ -18336,21 +18619,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="133">
       <c r="A133" s="65" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="134">
       <c r="A134" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B134" s="21" t="n">
         <v>0</v>
@@ -18364,7 +18647,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="135">
       <c r="A135" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B135" s="21" t="n">
         <v>2.01</v>
@@ -18378,7 +18661,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="136">
       <c r="A136" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B136" s="21" t="n">
         <v>4.01</v>
@@ -18392,7 +18675,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="137">
       <c r="A137" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B137" s="21" t="n">
         <v>6.01</v>
@@ -18406,21 +18689,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="138">
       <c r="A138" s="65" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="139">
       <c r="A139" s="65" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B139" s="21" t="n">
         <v>0</v>
@@ -18434,7 +18717,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="140">
       <c r="A140" s="65" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B140" s="21" t="n">
         <v>2.01</v>
@@ -18448,7 +18731,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="141">
       <c r="A141" s="65" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B141" s="21" t="n">
         <v>4.01</v>
@@ -18462,7 +18745,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="142">
       <c r="A142" s="65" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B142" s="21" t="n">
         <v>6.01</v>
@@ -18476,21 +18759,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="143">
       <c r="A143" s="65" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="144">
       <c r="A144" s="65" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B144" s="21" t="n">
         <v>0</v>
@@ -18504,7 +18787,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="145">
       <c r="A145" s="65" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B145" s="21" t="n">
         <v>2.01</v>
@@ -18518,7 +18801,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="146">
       <c r="A146" s="65" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B146" s="21" t="n">
         <v>4.01</v>
@@ -18532,7 +18815,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="147">
       <c r="A147" s="65" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B147" s="21" t="n">
         <v>6.01</v>
@@ -18546,21 +18829,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="148">
       <c r="A148" s="65" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="149">
       <c r="A149" s="65" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B149" s="21" t="n">
         <v>0</v>
@@ -18574,7 +18857,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="150">
       <c r="A150" s="65" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B150" s="21" t="n">
         <v>2.01</v>
@@ -18588,7 +18871,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="151">
       <c r="A151" s="65" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B151" s="21" t="n">
         <v>4.01</v>
@@ -18602,7 +18885,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="152">
       <c r="A152" s="65" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B152" s="21" t="n">
         <v>6.01</v>
@@ -18616,21 +18899,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="153">
       <c r="A153" s="65" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="154">
       <c r="A154" s="65" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B154" s="21" t="n">
         <v>0</v>
@@ -18644,7 +18927,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="155">
       <c r="A155" s="65" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B155" s="21" t="n">
         <v>2.01</v>
@@ -18658,7 +18941,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="156">
       <c r="A156" s="65" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B156" s="21" t="n">
         <v>4.01</v>
@@ -18672,7 +18955,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="157">
       <c r="A157" s="65" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B157" s="21" t="n">
         <v>6.01</v>
@@ -18686,21 +18969,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="158">
       <c r="A158" s="65" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="159">
       <c r="A159" s="65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B159" s="21" t="n">
         <v>0</v>
@@ -18714,7 +18997,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="160">
       <c r="A160" s="65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B160" s="21" t="n">
         <v>2.01</v>
@@ -18728,7 +19011,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="161">
       <c r="A161" s="65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B161" s="21" t="n">
         <v>4.01</v>
@@ -18742,7 +19025,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="162">
       <c r="A162" s="65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B162" s="21" t="n">
         <v>6.01</v>
@@ -18756,21 +19039,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="163">
       <c r="A163" s="65" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="164">
       <c r="A164" s="65" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B164" s="21" t="n">
         <v>0</v>
@@ -18784,7 +19067,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="165">
       <c r="A165" s="65" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B165" s="21" t="n">
         <v>2.01</v>
@@ -18798,7 +19081,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="166">
       <c r="A166" s="65" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B166" s="21" t="n">
         <v>4.01</v>
@@ -18812,7 +19095,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="167">
       <c r="A167" s="65" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B167" s="21" t="n">
         <v>6.01</v>
@@ -18826,21 +19109,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="168">
       <c r="A168" s="65" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="169">
       <c r="A169" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B169" s="21" t="n">
         <v>0</v>
@@ -18854,7 +19137,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="170">
       <c r="A170" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B170" s="21" t="n">
         <v>2.01</v>
@@ -18868,7 +19151,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="171">
       <c r="A171" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B171" s="21" t="n">
         <v>4.01</v>
@@ -18882,7 +19165,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="172">
       <c r="A172" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B172" s="21" t="n">
         <v>6.01</v>
@@ -18896,21 +19179,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="173">
       <c r="A173" s="65" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="174">
       <c r="A174" s="65" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B174" s="21" t="n">
         <v>0</v>
@@ -18924,7 +19207,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="175">
       <c r="A175" s="65" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B175" s="21" t="n">
         <v>2.01</v>
@@ -18938,7 +19221,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="176">
       <c r="A176" s="65" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B176" s="21" t="n">
         <v>4.01</v>
@@ -18952,7 +19235,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="177">
       <c r="A177" s="65" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B177" s="21" t="n">
         <v>6.01</v>
@@ -18966,21 +19249,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="178">
       <c r="A178" s="65" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="179">
       <c r="A179" s="65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B179" s="21" t="n">
         <v>0</v>
@@ -18994,7 +19277,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="180">
       <c r="A180" s="65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B180" s="21" t="n">
         <v>2.01</v>
@@ -19008,7 +19291,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="181">
       <c r="A181" s="65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B181" s="21" t="n">
         <v>4.01</v>
@@ -19022,7 +19305,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="182">
       <c r="A182" s="65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B182" s="21" t="n">
         <v>6.01</v>
@@ -19036,21 +19319,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="183">
       <c r="A183" s="65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="184">
       <c r="A184" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B184" s="21" t="n">
         <v>0</v>
@@ -19064,7 +19347,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="185">
       <c r="A185" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B185" s="21" t="n">
         <v>2.01</v>
@@ -19078,7 +19361,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="186">
       <c r="A186" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B186" s="21" t="n">
         <v>4.01</v>
@@ -19092,7 +19375,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="187">
       <c r="A187" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B187" s="21" t="n">
         <v>6.01</v>
@@ -19106,21 +19389,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="188">
       <c r="A188" s="65" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="189">
       <c r="A189" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B189" s="21" t="n">
         <v>0</v>
@@ -19134,7 +19417,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="190">
       <c r="A190" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B190" s="21" t="n">
         <v>2.01</v>
@@ -19148,7 +19431,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="191">
       <c r="A191" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B191" s="21" t="n">
         <v>4.01</v>
@@ -19162,7 +19445,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="192">
       <c r="A192" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B192" s="21" t="n">
         <v>6.01</v>
@@ -19176,21 +19459,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="193">
       <c r="A193" s="65" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="194">
       <c r="A194" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B194" s="21" t="n">
         <v>0</v>
@@ -19204,7 +19487,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="195">
       <c r="A195" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B195" s="21" t="n">
         <v>2.01</v>
@@ -19218,7 +19501,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="196">
       <c r="A196" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B196" s="21" t="n">
         <v>4.01</v>
@@ -19232,7 +19515,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="197">
       <c r="A197" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B197" s="21" t="n">
         <v>6.01</v>
@@ -19246,21 +19529,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="198">
       <c r="A198" s="65" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="199">
       <c r="A199" s="65" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B199" s="21" t="n">
         <v>0</v>
@@ -19274,7 +19557,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="200">
       <c r="A200" s="65" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B200" s="21" t="n">
         <v>2.01</v>
@@ -19288,7 +19571,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="201">
       <c r="A201" s="65" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B201" s="21" t="n">
         <v>4.01</v>
@@ -19302,7 +19585,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="202">
       <c r="A202" s="65" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B202" s="21" t="n">
         <v>6.01</v>
@@ -19316,16 +19599,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="203">
       <c r="A203" s="65" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="204">
@@ -19389,18 +19672,18 @@
         <v>967</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="209">
       <c r="A209" s="65" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B209" s="21" t="n">
         <v>0</v>
@@ -19414,7 +19697,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="210">
       <c r="A210" s="65" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B210" s="21" t="n">
         <v>2.01</v>
@@ -19428,7 +19711,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="211">
       <c r="A211" s="65" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B211" s="21" t="n">
         <v>4.01</v>
@@ -19442,7 +19725,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="212">
       <c r="A212" s="65" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B212" s="21" t="n">
         <v>6.01</v>
@@ -19456,21 +19739,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="213">
       <c r="A213" s="65" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="214">
       <c r="A214" s="65" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B214" s="21" t="n">
         <v>0</v>
@@ -19484,7 +19767,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="215">
       <c r="A215" s="65" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B215" s="21" t="n">
         <v>2.01</v>
@@ -19498,7 +19781,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="216">
       <c r="A216" s="65" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B216" s="21" t="n">
         <v>4.01</v>
@@ -19512,7 +19795,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="217">
       <c r="A217" s="65" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B217" s="21" t="n">
         <v>6.01</v>
@@ -19526,21 +19809,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="218">
       <c r="A218" s="65" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="219">
       <c r="A219" s="65" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B219" s="21" t="n">
         <v>0</v>
@@ -19554,7 +19837,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="220">
       <c r="A220" s="65" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B220" s="21" t="n">
         <v>2.01</v>
@@ -19568,7 +19851,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="221">
       <c r="A221" s="65" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B221" s="21" t="n">
         <v>4.01</v>
@@ -19582,7 +19865,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="222">
       <c r="A222" s="65" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B222" s="21" t="n">
         <v>6.01</v>
@@ -19596,21 +19879,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="223">
       <c r="A223" s="65" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="224">
       <c r="A224" s="65" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B224" s="21" t="n">
         <v>0</v>
@@ -19624,7 +19907,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="225">
       <c r="A225" s="65" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B225" s="21" t="n">
         <v>2.01</v>
@@ -19638,7 +19921,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="226">
       <c r="A226" s="65" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B226" s="21" t="n">
         <v>4.01</v>
@@ -19652,7 +19935,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="227">
       <c r="A227" s="65" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B227" s="21" t="n">
         <v>6.01</v>
@@ -19666,21 +19949,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="228">
       <c r="A228" s="65" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="229">
       <c r="A229" s="65" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B229" s="21" t="n">
         <v>0</v>
@@ -19694,7 +19977,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="230">
       <c r="A230" s="65" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B230" s="60" t="n">
         <v>2.01</v>
@@ -19708,7 +19991,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="231">
       <c r="A231" s="65" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B231" s="60" t="n">
         <v>4.01</v>
@@ -19722,7 +20005,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="232">
       <c r="A232" s="65" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B232" s="60" t="n">
         <v>6.01</v>
@@ -19736,16 +20019,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="233">
       <c r="A233" s="65" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B233" s="60" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C233" s="60" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D233" s="60" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -19800,10 +20083,10 @@
         <v>220</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>883</v>
@@ -19811,13 +20094,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="52">
       <c r="A3" s="52" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B3" s="125" t="s">
         <v>223</v>
@@ -19826,10 +20109,10 @@
         <v>40</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>883</v>
@@ -19838,13 +20121,13 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="126"/>
       <c r="B4" s="41" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
@@ -19853,34 +20136,34 @@
         <v>970</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="126"/>
       <c r="B6" s="41" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="126"/>
       <c r="B7" s="41" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -19923,80 +20206,80 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="44">
       <c r="A1" s="44" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="52">
       <c r="A3" s="52" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4" s="44">
       <c r="A4" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="9">
       <c r="A9" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="126" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
@@ -20004,7 +20287,7 @@
         <v>970</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
@@ -20012,7 +20295,7 @@
         <v>970</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
@@ -20020,7 +20303,7 @@
         <v>970</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
@@ -20028,7 +20311,7 @@
         <v>970</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="15">
@@ -20036,63 +20319,63 @@
         <v>970</v>
       </c>
       <c r="B15" s="128" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="16">
       <c r="A16" s="126" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B16" s="128" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="17">
       <c r="A17" s="126" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B17" s="128" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="18">
       <c r="A18" s="126" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B18" s="128" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="19">
       <c r="A19" s="126" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="20">
       <c r="A20" s="126" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="21">
       <c r="A21" s="126" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B21" s="128" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="22">
       <c r="A22" s="126" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B22" s="128" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -20145,42 +20428,42 @@
         <v>664</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>689</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -20235,7 +20518,7 @@
         <v>686</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>883</v>
@@ -20248,7 +20531,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C2" s="9"/>
       <c r="AMI2" s="51"/>
@@ -20256,7 +20539,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>298</v>
@@ -20271,13 +20554,13 @@
         <v>688</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>883</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="AMI3" s="3"/>
       <c r="AMJ3" s="3"/>
@@ -20358,30 +20641,30 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
@@ -20389,10 +20672,10 @@
         <v>970</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
@@ -20400,10 +20683,10 @@
         <v>970</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
@@ -20411,10 +20694,10 @@
         <v>970</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
@@ -20422,10 +20705,10 @@
         <v>970</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
@@ -20433,10 +20716,10 @@
         <v>970</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -20489,36 +20772,36 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -20565,47 +20848,47 @@
         <v>541</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>0</v>
@@ -20622,10 +20905,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>0</v>
@@ -20642,10 +20925,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="6">
       <c r="A6" s="7" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>0</v>
@@ -20662,10 +20945,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="7">
       <c r="A7" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>0</v>
@@ -22330,50 +22613,50 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>12</v>
@@ -22388,10 +22671,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>13</v>
@@ -22406,10 +22689,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>14</v>
@@ -22424,10 +22707,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>15</v>
@@ -22442,10 +22725,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>16</v>
@@ -22460,10 +22743,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="9">
       <c r="A9" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>17</v>
@@ -22478,10 +22761,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>18</v>
@@ -22496,10 +22779,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
       <c r="A11" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>10</v>
@@ -22514,7 +22797,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
       <c r="A12" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>973</v>
@@ -22532,10 +22815,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
       <c r="A13" s="70" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>12</v>
@@ -22550,7 +22833,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
       <c r="A14" s="70" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>973</v>
@@ -22568,10 +22851,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="15">
       <c r="A15" s="70" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>5</v>
@@ -22586,10 +22869,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="16">
       <c r="A16" s="70" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>4</v>
@@ -22604,10 +22887,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="17">
       <c r="A17" s="70" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>8</v>
@@ -22670,7 +22953,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -22684,10 +22967,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -22732,7 +23015,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -22749,10 +23032,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C4" s="129" t="s">
         <v>784</v>
@@ -22797,29 +23080,29 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="129" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>973</v>
@@ -22827,10 +23110,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="129" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -22879,91 +23162,91 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>909</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="9" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>785</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="129" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="70"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="129" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F5" s="70"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
       <c r="A6" s="129" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
@@ -22971,13 +23254,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
       <c r="A7" s="129" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
@@ -22985,13 +23268,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="129" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -22999,13 +23282,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
       <c r="A9" s="129" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
@@ -23013,13 +23296,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
       <c r="A10" s="129" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
@@ -23027,13 +23310,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
       <c r="A11" s="129" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
@@ -23041,13 +23324,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
       <c r="A12" s="129" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -23055,13 +23338,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
       <c r="A13" s="129" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
@@ -23069,13 +23352,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
       <c r="A14" s="129" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
@@ -23083,13 +23366,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
       <c r="A15" s="129" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -23097,13 +23380,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
       <c r="A16" s="129" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -23111,13 +23394,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
       <c r="A17" s="129" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -23125,13 +23408,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="18">
       <c r="A18" s="129" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
@@ -23139,13 +23422,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
       <c r="A19" s="129" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -23153,13 +23436,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="20">
       <c r="A20" s="129" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -23167,13 +23450,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
       <c r="A21" s="129" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
@@ -23181,13 +23464,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="129" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -23197,16 +23480,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
       <c r="A23" s="129" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
@@ -23258,7 +23541,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23282,7 +23565,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="2" s="8">
       <c r="B2" s="9" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="131"/>
     </row>
@@ -23299,10 +23582,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="132" t="n">
         <v>0</v>
@@ -23310,10 +23593,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="6" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C5" s="132" t="n">
         <v>0</v>
@@ -23321,10 +23604,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
       <c r="A6" s="6" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C6" s="133" t="n">
         <v>1</v>
@@ -23332,10 +23615,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
       <c r="A7" s="6" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C7" s="133" t="n">
         <v>1</v>
@@ -23343,21 +23626,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="6" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C8" s="132" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
       <c r="A9" s="6" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C9" s="133" t="n">
         <v>0</v>
@@ -23365,10 +23648,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
       <c r="A10" s="6" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C10" s="132" t="n">
         <v>15</v>
@@ -23379,7 +23662,7 @@
         <v>1013</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C11" s="132" t="n">
         <v>14</v>
@@ -23387,10 +23670,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
       <c r="A12" s="6" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C12" s="132" t="n">
         <v>5</v>
@@ -23398,10 +23681,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
       <c r="A13" s="6" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C13" s="132" t="n">
         <v>5</v>
@@ -23409,10 +23692,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
       <c r="A14" s="6" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B14" s="112" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C14" s="132" t="n">
         <v>4</v>
@@ -23420,19 +23703,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C15" s="132"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
       <c r="A16" s="6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C16" s="133" t="n">
         <v>0</v>
@@ -23440,10 +23723,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
       <c r="A17" s="6" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C17" s="133" t="n">
         <v>1</v>
@@ -23451,10 +23734,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="18">
       <c r="A18" s="6" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C18" s="134" t="s">
         <v>967</v>
@@ -23462,22 +23745,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
       <c r="A19" s="6" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D19" s="136"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="20">
       <c r="A20" s="6" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C20" s="134" t="s">
         <v>313</v>
@@ -23486,10 +23769,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
       <c r="A21" s="6" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C21" s="134" t="s">
         <v>313</v>
@@ -23497,10 +23780,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="6" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C22" s="135" t="n">
         <v>30</v>
@@ -23508,10 +23791,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
       <c r="A23" s="6" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C23" s="135" t="n">
         <v>0</v>
@@ -23519,10 +23802,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="A24" s="6" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C24" s="135" t="n">
         <v>0</v>
@@ -23530,33 +23813,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="A25" s="6" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D25" s="137"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="A26" s="6" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B26" s="112" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C26" s="134" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="27">
       <c r="A27" s="6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C27" s="133" t="n">
         <v>1</v>
@@ -23564,21 +23847,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="A28" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C28" s="132" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="A29" s="6" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B29" s="112" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C29" s="132" t="n">
         <v>2</v>
@@ -23586,10 +23869,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="A30" s="6" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C30" s="133" t="n">
         <v>0</v>
@@ -23597,10 +23880,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="A31" s="6" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C31" s="132"/>
     </row>
@@ -23747,52 +24030,52 @@
         <v>123</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G1" s="140" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="J1" s="72" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="K1" s="72" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L1" s="72"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
       <c r="A2" s="78" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F2" s="112" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G2" s="112" t="n">
         <v>0</v>
@@ -23801,81 +24084,81 @@
         <v>311</v>
       </c>
       <c r="I2" s="112" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="J2" s="112" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="K2" s="112" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
       <c r="A3" s="78" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D3" s="112" t="s">
         <v>313</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F3" s="112" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G3" s="112" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="112" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="I3" s="112" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="K3" s="112" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="78" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="112" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F4" s="112" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="112" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="112" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="112" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
@@ -23887,7 +24170,7 @@
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="112" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
@@ -23895,16 +24178,16 @@
         <v>190</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="112" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="78" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>214</v>
@@ -23960,51 +24243,51 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="58.45" outlineLevel="0" r="21" s="144">
       <c r="A21" s="64" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="E21" s="143" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="145" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C22" s="112" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E22" s="138" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F22" s="112" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G22" s="112" t="s">
         <v>919</v>
@@ -24013,24 +24296,24 @@
         <v>919</v>
       </c>
       <c r="I22" s="112" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="112" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C23" s="112" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D23" s="112" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E23" s="138" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F23" s="112" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G23" s="112" t="s">
         <v>925</v>
@@ -24039,21 +24322,21 @@
         <v>925</v>
       </c>
       <c r="I23" s="112" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="B24" s="112" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D24" s="112" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="F24" s="112" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G24" s="112" t="s">
         <v>922</v>
@@ -24062,926 +24345,926 @@
         <v>922</v>
       </c>
       <c r="I24" s="112" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="B25" s="112" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C25" s="112" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D25" s="112" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="H25" s="112" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I25" s="112" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="B26" s="112" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C26" s="112" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="B27" s="112" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="B28" s="112" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C28" s="112" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="B29" s="112" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C29" s="112" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="B30" s="112" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="B31" s="112" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C31" s="112" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="32">
       <c r="B32" s="112" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="33">
       <c r="B33" s="112" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C33" s="112" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="34">
       <c r="B34" s="112" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="35">
       <c r="B35" s="112" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="36">
       <c r="B36" s="112" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="37">
       <c r="B37" s="112" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="38">
       <c r="B38" s="112" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="39">
       <c r="B39" s="112" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="40">
       <c r="B40" s="112" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="41">
       <c r="B41" s="112" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="42">
       <c r="B42" s="112" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="43">
       <c r="B43" s="112" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="44">
       <c r="B44" s="112" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="45">
       <c r="B45" s="112" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="46">
       <c r="B46" s="112" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="47">
       <c r="B47" s="112" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="48">
       <c r="B48" s="112" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="49">
       <c r="B49" s="112" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="50">
       <c r="B50" s="112" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="51">
       <c r="B51" s="112" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="52">
       <c r="B52" s="112" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="53">
       <c r="B53" s="112" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="54">
       <c r="B54" s="112" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="55">
       <c r="B55" s="112" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="56">
       <c r="B56" s="112" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="57">
       <c r="B57" s="112" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="58">
       <c r="B58" s="112" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="59">
       <c r="B59" s="112" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="60">
       <c r="B60" s="112" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="61">
       <c r="B61" s="112" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="62">
       <c r="B62" s="112" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="63">
       <c r="B63" s="112" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="64">
       <c r="B64" s="112" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="65">
       <c r="B65" s="112" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="66">
       <c r="B66" s="112" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="67">
       <c r="B67" s="112" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="68">
       <c r="B68" s="112" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="69">
       <c r="B69" s="112" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="70">
       <c r="B70" s="112" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="71">
       <c r="B71" s="112" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="72">
       <c r="B72" s="112" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="73">
       <c r="B73" s="112" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="74">
       <c r="B74" s="112" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="75">
       <c r="B75" s="112" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="76">
       <c r="B76" s="112" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="77">
       <c r="B77" s="112" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="78">
       <c r="B78" s="112" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="79">
       <c r="B79" s="112" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="80">
       <c r="B80" s="112" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="81">
       <c r="B81" s="112" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="82">
       <c r="B82" s="112" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="83">
       <c r="B83" s="112" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="84">
       <c r="B84" s="112" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="85">
       <c r="B85" s="112" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="86">
       <c r="B86" s="112" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="87">
       <c r="B87" s="112" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="88">
       <c r="B88" s="112" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="89">
       <c r="B89" s="112" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="90">
       <c r="B90" s="112" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="91">
       <c r="B91" s="112" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="92">
       <c r="B92" s="112" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="93">
       <c r="B93" s="112" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="94">
       <c r="B94" s="112" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="95">
       <c r="B95" s="112" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="96">
       <c r="B96" s="112" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="97">
       <c r="B97" s="112" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="98">
       <c r="B98" s="112" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="99">
       <c r="B99" s="112" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="100">
       <c r="B100" s="112" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="101">
       <c r="B101" s="112" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
       <c r="B102" s="112" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="103">
       <c r="B103" s="112" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="104">
       <c r="B104" s="112" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="105">
       <c r="B105" s="112" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="106">
       <c r="B106" s="112" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="107">
       <c r="B107" s="112" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="108">
       <c r="B108" s="112" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="109">
       <c r="B109" s="112" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="110">
       <c r="B110" s="112" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="111">
       <c r="B111" s="112" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="112">
       <c r="B112" s="112" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="113">
       <c r="B113" s="112" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="114">
       <c r="B114" s="112" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="115">
       <c r="B115" s="112" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="116">
       <c r="B116" s="112" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="117">
       <c r="B117" s="112" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="118">
       <c r="B118" s="112" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="119">
       <c r="B119" s="112" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="120">
       <c r="B120" s="112" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="121">
       <c r="B121" s="112" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="122">
       <c r="B122" s="112" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="123">
       <c r="B123" s="112" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="124">
       <c r="B124" s="112" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="125">
       <c r="B125" s="112" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="126">
       <c r="B126" s="112" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="127">
       <c r="B127" s="112" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="128">
       <c r="B128" s="112" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="129">
       <c r="B129" s="112" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="130">
       <c r="B130" s="112" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="131">
       <c r="B131" s="112" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="132">
       <c r="B132" s="112" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="133">
       <c r="B133" s="112" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="134">
       <c r="B134" s="112" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="135">
       <c r="B135" s="112" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="136">
       <c r="B136" s="112" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="137">
       <c r="B137" s="112" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="138">
       <c r="B138" s="112" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="139">
       <c r="B139" s="112" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="140">
       <c r="B140" s="112" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="141">
       <c r="B141" s="112" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="142">
       <c r="B142" s="112" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="143">
       <c r="B143" s="112" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="144">
       <c r="B144" s="112" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="145">
       <c r="B145" s="112" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="146">
       <c r="B146" s="112" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="147">
       <c r="B147" s="112" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="148">
       <c r="B148" s="112" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="149">
       <c r="B149" s="112" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="150">
       <c r="B150" s="112" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="151">
       <c r="B151" s="112" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="152">
       <c r="B152" s="112" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="153">
       <c r="B153" s="112" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="154">
       <c r="B154" s="112" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="155">
       <c r="B155" s="112" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="156">
       <c r="B156" s="112" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="157">
       <c r="B157" s="112" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="158">
       <c r="B158" s="112" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="159">
       <c r="B159" s="112" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="160">
       <c r="B160" s="112" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="161">
       <c r="B161" s="112" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="162">
       <c r="B162" s="112" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="163">
       <c r="B163" s="112" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="164">
       <c r="B164" s="112" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="165">
       <c r="B165" s="112" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="166">
       <c r="B166" s="112" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="167">
       <c r="B167" s="112" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="168">
       <c r="B168" s="112" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="169">
       <c r="B169" s="112" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="170">
       <c r="B170" s="112" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="171">
       <c r="B171" s="112" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="172">
       <c r="B172" s="112" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="173">
       <c r="B173" s="112" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="174">
       <c r="B174" s="112" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="175">
       <c r="B175" s="112" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="176">
       <c r="B176" s="112" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="177">
       <c r="B177" s="112" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="178">
       <c r="B178" s="112" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="179">
       <c r="B179" s="112" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="180">
       <c r="B180" s="112" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="181">
       <c r="B181" s="112" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="182">
       <c r="B182" s="112" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="183">
       <c r="B183" s="112" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="184">
       <c r="B184" s="112" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="185">
       <c r="B185" s="112" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="186">
       <c r="B186" s="112" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="187">
       <c r="B187" s="112" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="188">
       <c r="B188" s="112" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="189">
       <c r="B189" s="112" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="190">
       <c r="B190" s="112" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="191">
       <c r="B191" s="112" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="192">
       <c r="B192" s="112" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="193">
       <c r="B193" s="112" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="194">
       <c r="B194" s="112" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="195">
       <c r="B195" s="112" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="196">
       <c r="B196" s="112" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="197">
       <c r="B197" s="112" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="198">
       <c r="B198" s="112" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="199">
       <c r="B199" s="112" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="200">
       <c r="B200" s="112" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>

--- a/bika/lims/setupdata/demo/demo.xlsx
+++ b/bika/lims/setupdata/demo/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="28" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="918" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="901" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1578">
   <si>
     <t>Instructions</t>
   </si>
@@ -368,7 +368,7 @@
     <t>Analysis Request</t>
   </si>
   <si>
-    <t>AR-</t>
+    <t>AR</t>
   </si>
   <si>
     <t>Batch</t>
@@ -377,25 +377,25 @@
     <t>Case</t>
   </si>
   <si>
-    <t>B-</t>
+    <t>B</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>S-</t>
+    <t>S</t>
   </si>
   <si>
     <t>Worksheet</t>
   </si>
   <si>
-    <t>WS-</t>
+    <t>WS</t>
   </si>
   <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>I-</t>
+    <t>I</t>
   </si>
   <si>
     <t>ARImport</t>
@@ -404,7 +404,7 @@
     <t>AR Import</t>
   </si>
   <si>
-    <t>AI-</t>
+    <t>AI</t>
   </si>
   <si>
     <t>ReferenceSample</t>
@@ -413,7 +413,7 @@
     <t>Reference Sample</t>
   </si>
   <si>
-    <t>QC-</t>
+    <t>QC</t>
   </si>
   <si>
     <t>ReferenceAnalysis</t>
@@ -422,7 +422,7 @@
     <t>Reference Analysis</t>
   </si>
   <si>
-    <t>SA-</t>
+    <t>SA</t>
   </si>
   <si>
     <t>DuplicateAnalysis</t>
@@ -431,7 +431,7 @@
     <t>Duplicate Analysis</t>
   </si>
   <si>
-    <t>D-</t>
+    <t>D</t>
   </si>
   <si>
     <t>Field</t>
@@ -4386,9 +4386,6 @@
   </si>
   <si>
     <t>fax</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>W</t>
@@ -8658,7 +8655,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12609,7 +12606,7 @@
   </sheetPr>
   <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="W3" activeCellId="0" pane="topLeft" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -12735,7 +12732,7 @@
       <c r="AMI2" s="51"/>
       <c r="AMJ2" s="51"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.8" outlineLevel="0" r="3" s="61">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="58.45" outlineLevel="0" r="3" s="61">
       <c r="A3" s="61" t="s">
         <v>223</v>
       </c>
@@ -16045,10 +16042,6 @@
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R54" type="list">
-      <formula1>'Analysis Service Uncertainties'!$A$4:$A$98</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Does this analysis require a separate sample partition?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V4:V54" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
@@ -16059,6 +16052,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Preservation from the selection list. Maintain the list of valid options on the 'Preservations' sheet." promptTitle="Select a valid Preservation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X4:X54" type="list">
       <formula1>Preservations!$A$4:$A$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R54" type="list">
+      <formula1>'Analysis Service Uncertainties'!$A$4:$A$98</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -24119,10 +24116,10 @@
         <v>1356</v>
       </c>
       <c r="I3" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="112" t="s">
         <v>1357</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>1358</v>
       </c>
       <c r="K3" s="112" t="s">
         <v>1048</v>
@@ -24130,35 +24127,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="78" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="112" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>1360</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="F4" s="112" t="s">
         <v>1361</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>1362</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="112" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="112" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B5" s="112" t="s">
         <v>1364</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>1365</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="112" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
@@ -24170,7 +24167,7 @@
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="112" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
@@ -24178,16 +24175,16 @@
         <v>190</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="112" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="78" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>214</v>
@@ -24243,39 +24240,39 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="58.45" outlineLevel="0" r="21" s="144">
       <c r="A21" s="64" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B21" s="72" t="s">
         <v>1292</v>
       </c>
       <c r="C21" s="64" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>1372</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="E21" s="143" t="s">
         <v>1373</v>
       </c>
-      <c r="E21" s="143" t="s">
+      <c r="F21" s="64" t="s">
         <v>1374</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="G21" s="64" t="s">
         <v>1375</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="H21" s="64" t="s">
         <v>1376</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="64" t="s">
         <v>1377</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="145" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B22" s="112" t="s">
         <v>1379</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>1380</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>1214</v>
@@ -24284,10 +24281,10 @@
         <v>1221</v>
       </c>
       <c r="E22" s="138" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F22" s="112" t="s">
         <v>1381</v>
-      </c>
-      <c r="F22" s="112" t="s">
-        <v>1382</v>
       </c>
       <c r="G22" s="112" t="s">
         <v>919</v>
@@ -24301,19 +24298,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="112" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C23" s="112" t="s">
         <v>1383</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>1384</v>
       </c>
       <c r="D23" s="112" t="s">
         <v>1262</v>
       </c>
       <c r="E23" s="138" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F23" s="112" t="s">
         <v>1385</v>
-      </c>
-      <c r="F23" s="112" t="s">
-        <v>1386</v>
       </c>
       <c r="G23" s="112" t="s">
         <v>925</v>
@@ -24322,21 +24319,21 @@
         <v>925</v>
       </c>
       <c r="I23" s="112" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="B24" s="112" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C24" s="112" t="s">
         <v>1388</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>1389</v>
       </c>
       <c r="D24" s="112" t="s">
         <v>1264</v>
       </c>
       <c r="F24" s="112" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G24" s="112" t="s">
         <v>922</v>
@@ -24345,911 +24342,911 @@
         <v>922</v>
       </c>
       <c r="I24" s="112" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="B25" s="112" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C25" s="112" t="s">
         <v>1392</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>1393</v>
       </c>
       <c r="D25" s="112" t="s">
         <v>1281</v>
       </c>
       <c r="H25" s="112" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I25" s="112" t="s">
         <v>1394</v>
-      </c>
-      <c r="I25" s="112" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="B26" s="112" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C26" s="112" t="s">
         <v>1396</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="H26" s="112" t="s">
         <v>1397</v>
-      </c>
-      <c r="H26" s="112" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="B27" s="112" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C27" s="112" t="s">
         <v>1399</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="B28" s="112" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C28" s="112" t="s">
         <v>1401</v>
-      </c>
-      <c r="C28" s="112" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="B29" s="112" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C29" s="112" t="s">
         <v>1403</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="B30" s="112" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C30" s="112" t="s">
         <v>1405</v>
-      </c>
-      <c r="C30" s="112" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="B31" s="112" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C31" s="112" t="s">
         <v>1407</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="32">
       <c r="B32" s="112" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C32" s="112" t="s">
         <v>1409</v>
-      </c>
-      <c r="C32" s="112" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="33">
       <c r="B33" s="112" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C33" s="112" t="s">
         <v>1411</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="34">
       <c r="B34" s="112" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="35">
       <c r="B35" s="112" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="36">
       <c r="B36" s="112" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="37">
       <c r="B37" s="112" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="38">
       <c r="B38" s="112" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="39">
       <c r="B39" s="112" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="40">
       <c r="B40" s="112" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="41">
       <c r="B41" s="112" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="42">
       <c r="B42" s="112" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="43">
       <c r="B43" s="112" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="44">
       <c r="B44" s="112" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="45">
       <c r="B45" s="112" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="46">
       <c r="B46" s="112" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="47">
       <c r="B47" s="112" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="48">
       <c r="B48" s="112" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="49">
       <c r="B49" s="112" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="50">
       <c r="B50" s="112" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="51">
       <c r="B51" s="112" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="52">
       <c r="B52" s="112" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="53">
       <c r="B53" s="112" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="54">
       <c r="B54" s="112" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="55">
       <c r="B55" s="112" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="56">
       <c r="B56" s="112" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="57">
       <c r="B57" s="112" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="58">
       <c r="B58" s="112" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="59">
       <c r="B59" s="112" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="60">
       <c r="B60" s="112" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="61">
       <c r="B61" s="112" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="62">
       <c r="B62" s="112" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="63">
       <c r="B63" s="112" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="64">
       <c r="B64" s="112" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="65">
       <c r="B65" s="112" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="66">
       <c r="B66" s="112" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="67">
       <c r="B67" s="112" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="68">
       <c r="B68" s="112" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="69">
       <c r="B69" s="112" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="70">
       <c r="B70" s="112" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="71">
       <c r="B71" s="112" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="72">
       <c r="B72" s="112" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="73">
       <c r="B73" s="112" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="74">
       <c r="B74" s="112" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="75">
       <c r="B75" s="112" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="76">
       <c r="B76" s="112" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="77">
       <c r="B77" s="112" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="78">
       <c r="B78" s="112" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="79">
       <c r="B79" s="112" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="80">
       <c r="B80" s="112" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="81">
       <c r="B81" s="112" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="82">
       <c r="B82" s="112" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="83">
       <c r="B83" s="112" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="84">
       <c r="B84" s="112" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="85">
       <c r="B85" s="112" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="86">
       <c r="B86" s="112" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="87">
       <c r="B87" s="112" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="88">
       <c r="B88" s="112" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="89">
       <c r="B89" s="112" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="90">
       <c r="B90" s="112" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="91">
       <c r="B91" s="112" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="92">
       <c r="B92" s="112" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="93">
       <c r="B93" s="112" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="94">
       <c r="B94" s="112" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="95">
       <c r="B95" s="112" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="96">
       <c r="B96" s="112" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="97">
       <c r="B97" s="112" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="98">
       <c r="B98" s="112" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="99">
       <c r="B99" s="112" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="100">
       <c r="B100" s="112" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="101">
       <c r="B101" s="112" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
       <c r="B102" s="112" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="103">
       <c r="B103" s="112" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="104">
       <c r="B104" s="112" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="105">
       <c r="B105" s="112" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="106">
       <c r="B106" s="112" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="107">
       <c r="B107" s="112" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="108">
       <c r="B108" s="112" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="109">
       <c r="B109" s="112" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="110">
       <c r="B110" s="112" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="111">
       <c r="B111" s="112" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="112">
       <c r="B112" s="112" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="113">
       <c r="B113" s="112" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="114">
       <c r="B114" s="112" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="115">
       <c r="B115" s="112" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="116">
       <c r="B116" s="112" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="117">
       <c r="B117" s="112" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="118">
       <c r="B118" s="112" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="119">
       <c r="B119" s="112" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="120">
       <c r="B120" s="112" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="121">
       <c r="B121" s="112" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="122">
       <c r="B122" s="112" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="123">
       <c r="B123" s="112" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="124">
       <c r="B124" s="112" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="125">
       <c r="B125" s="112" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="126">
       <c r="B126" s="112" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="127">
       <c r="B127" s="112" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="128">
       <c r="B128" s="112" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="129">
       <c r="B129" s="112" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="130">
       <c r="B130" s="112" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="131">
       <c r="B131" s="112" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="132">
       <c r="B132" s="112" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="133">
       <c r="B133" s="112" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="134">
       <c r="B134" s="112" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="135">
       <c r="B135" s="112" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="136">
       <c r="B136" s="112" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="137">
       <c r="B137" s="112" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="138">
       <c r="B138" s="112" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="139">
       <c r="B139" s="112" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="140">
       <c r="B140" s="112" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="141">
       <c r="B141" s="112" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="142">
       <c r="B142" s="112" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="143">
       <c r="B143" s="112" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="144">
       <c r="B144" s="112" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="145">
       <c r="B145" s="112" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="146">
       <c r="B146" s="112" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="147">
       <c r="B147" s="112" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="148">
       <c r="B148" s="112" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="149">
       <c r="B149" s="112" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="150">
       <c r="B150" s="112" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="151">
       <c r="B151" s="112" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="152">
       <c r="B152" s="112" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="153">
       <c r="B153" s="112" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="154">
       <c r="B154" s="112" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="155">
       <c r="B155" s="112" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="156">
       <c r="B156" s="112" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="157">
       <c r="B157" s="112" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="158">
       <c r="B158" s="112" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="159">
       <c r="B159" s="112" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="160">
       <c r="B160" s="112" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="161">
       <c r="B161" s="112" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="162">
       <c r="B162" s="112" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="163">
       <c r="B163" s="112" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="164">
       <c r="B164" s="112" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="165">
       <c r="B165" s="112" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="166">
       <c r="B166" s="112" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="167">
       <c r="B167" s="112" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="168">
       <c r="B168" s="112" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="169">
       <c r="B169" s="112" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="170">
       <c r="B170" s="112" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="171">
       <c r="B171" s="112" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="172">
       <c r="B172" s="112" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="173">
       <c r="B173" s="112" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="174">
       <c r="B174" s="112" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="175">
       <c r="B175" s="112" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="176">
       <c r="B176" s="112" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="177">
       <c r="B177" s="112" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="178">
       <c r="B178" s="112" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="179">
       <c r="B179" s="112" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="180">
       <c r="B180" s="112" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="181">
       <c r="B181" s="112" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="182">
       <c r="B182" s="112" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="183">
       <c r="B183" s="112" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="184">
       <c r="B184" s="112" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="185">
       <c r="B185" s="112" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="186">
       <c r="B186" s="112" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="187">
       <c r="B187" s="112" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="188">
       <c r="B188" s="112" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="189">
       <c r="B189" s="112" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="190">
       <c r="B190" s="112" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="191">
       <c r="B191" s="112" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="192">
       <c r="B192" s="112" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="193">
       <c r="B193" s="112" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="194">
       <c r="B194" s="112" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="195">
       <c r="B195" s="112" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="196">
       <c r="B196" s="112" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="197">
       <c r="B197" s="112" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="198">
@@ -25259,12 +25256,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="199">
       <c r="B199" s="112" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="200">
       <c r="B200" s="112" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
   </sheetData>
